--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -52,16 +52,241 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πωλήσεις Έκπτωση 1</t>
+  </si>
+  <si>
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>AVA PERLE 430ML CLASSIC</t>
+  </si>
+  <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
+    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
+  </si>
+  <si>
+    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
+  </si>
+  <si>
+    <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
+  </si>
+  <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5201399010235</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5201314120902</t>
+  </si>
+  <si>
     <t>5201219486417</t>
   </si>
   <si>
+    <t>5201314120926</t>
+  </si>
+  <si>
+    <t>6001067003366</t>
+  </si>
+  <si>
+    <t>87250510</t>
+  </si>
+  <si>
+    <t>Selpak</t>
+  </si>
+  <si>
+    <t>Bazaar</t>
+  </si>
+  <si>
+    <t>Pantene</t>
+  </si>
+  <si>
+    <t>Nutella</t>
+  </si>
+  <si>
+    <t>Neomat</t>
+  </si>
+  <si>
+    <t>Kelloggs</t>
+  </si>
+  <si>
+    <t>3 Άλφα</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Dixan</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
+  </si>
+  <si>
+    <t>Royal Dutch</t>
   </si>
 </sst>
 </file>
@@ -446,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,46 +734,1131 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>43988</v>
+        <v>43998</v>
       </c>
       <c r="D2" s="4">
-        <v>43997</v>
+        <v>44012</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C3" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H7" s="2">
         <v>2.95</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.15</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.15</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H30" s="2">
         <v>2.29</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="1">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
-      <c r="L3" s="5">
-        <v>10.15</v>
+      <c r="L31" s="2">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>50</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7</v>
+      </c>
+      <c r="L32" s="2">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="1">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="K34" s="5">
+        <v>66</v>
+      </c>
+      <c r="L34" s="5">
+        <v>93.11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I2">
+  <conditionalFormatting sqref="I1:I33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -560,7 +1870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2">
+  <conditionalFormatting sqref="J1:J33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,87 +61,87 @@
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
     <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
+    <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
@@ -157,87 +157,87 @@
     <t>8690530044494</t>
   </si>
   <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
     <t>5208086416820</t>
   </si>
   <si>
+    <t>80135876</t>
+  </si>
+  <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
     <t>4015600948016</t>
   </si>
   <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
-    <t>5201395136939</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
   </si>
   <si>
     <t>5201399010235</t>
   </si>
   <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
+    <t>5201314120902</t>
   </si>
   <si>
     <t>5201395138438</t>
   </si>
   <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>Selpak</t>
   </si>
   <si>
+    <t>Pantene</t>
+  </si>
+  <si>
     <t>Bazaar</t>
   </si>
   <si>
-    <t>Pantene</t>
-  </si>
-  <si>
     <t>Nutella</t>
   </si>
   <si>
@@ -268,16 +268,16 @@
     <t>Kelloggs</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Dixan</t>
+  </si>
+  <si>
     <t>3 Άλφα</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Dixan</t>
   </si>
   <si>
     <t>Ava</t>
@@ -766,7 +766,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>43998</v>
@@ -781,13 +781,13 @@
         <v>47</v>
       </c>
       <c r="G3" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H3" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>79</v>
@@ -825,7 +825,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -851,13 +851,13 @@
         <v>49</v>
       </c>
       <c r="G5" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>80</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -886,16 +886,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="2">
-        <v>3.98</v>
+        <v>3.78</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>51</v>
       </c>
       <c r="G7" s="2">
-        <v>3.78</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>2.95</v>
+        <v>5.59</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -991,16 +991,16 @@
         <v>53</v>
       </c>
       <c r="G9" s="2">
-        <v>8.949999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H9" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>54</v>
       </c>
       <c r="G10" s="2">
-        <v>4.3</v>
+        <v>3.98</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>55</v>
       </c>
       <c r="G11" s="2">
-        <v>3.45</v>
+        <v>5.95</v>
       </c>
       <c r="H11" s="2">
-        <v>1.69</v>
+        <v>5.59</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1.5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="2">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1105,18 +1105,18 @@
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>43998</v>
@@ -1131,27 +1131,27 @@
         <v>57</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1166,22 +1166,22 @@
         <v>58</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>2.25</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1210,18 +1210,18 @@
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1236,27 +1236,27 @@
         <v>60</v>
       </c>
       <c r="G16" s="2">
-        <v>5.95</v>
+        <v>2.95</v>
       </c>
       <c r="H16" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>3.83</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1271,27 +1271,27 @@
         <v>61</v>
       </c>
       <c r="G17" s="2">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="H17" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0.88</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1306,27 +1306,27 @@
         <v>62</v>
       </c>
       <c r="G18" s="2">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="H18" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1341,27 +1341,27 @@
         <v>63</v>
       </c>
       <c r="G19" s="2">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I19" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>1.19</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1376,22 +1376,22 @@
         <v>64</v>
       </c>
       <c r="G20" s="2">
-        <v>5.95</v>
+        <v>3.35</v>
       </c>
       <c r="H20" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>4.51</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1411,22 +1411,22 @@
         <v>65</v>
       </c>
       <c r="G21" s="2">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="2">
-        <v>1.21</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1446,22 +1446,22 @@
         <v>66</v>
       </c>
       <c r="G22" s="2">
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>4.59</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -1525,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -1551,13 +1551,13 @@
         <v>69</v>
       </c>
       <c r="G25" s="2">
-        <v>2.99</v>
+        <v>7.95</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>86</v>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="2">
-        <v>2.42</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1586,7 +1586,7 @@
         <v>70</v>
       </c>
       <c r="G26" s="2">
-        <v>7.95</v>
+        <v>3.98</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1595,18 +1595,18 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>8.98</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>43998</v>
@@ -1621,22 +1621,22 @@
         <v>71</v>
       </c>
       <c r="G27" s="2">
-        <v>3.98</v>
+        <v>3.45</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="2">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1656,7 +1656,7 @@
         <v>72</v>
       </c>
       <c r="G28" s="2">
-        <v>7.95</v>
+        <v>1.2</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" s="1">
         <v>3</v>
       </c>
       <c r="L28" s="2">
-        <v>13.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1691,7 +1691,7 @@
         <v>73</v>
       </c>
       <c r="G29" s="2">
-        <v>1.2</v>
+        <v>7.95</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1">
         <v>3</v>
       </c>
       <c r="L29" s="2">
-        <v>2.04</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1805,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="1">
         <v>7</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="K34" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L34" s="5">
-        <v>93.11</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -58,93 +58,96 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
@@ -154,93 +157,96 @@
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
     <t>8690530044494</t>
   </si>
   <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
     <t>8001090724984</t>
   </si>
   <si>
     <t>5208086416820</t>
   </si>
   <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5201395136939</t>
+    <t>5201024779957</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
   </si>
   <si>
     <t>5201395137134</t>
   </si>
   <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
     <t>5053827215671</t>
   </si>
   <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5201399010235</t>
   </si>
   <si>
     <t>7891024132074</t>
   </si>
   <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
   </si>
   <si>
     <t>5208086420353</t>
   </si>
   <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5201399010235</t>
-  </si>
-  <si>
     <t>5201314120902</t>
   </si>
   <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
     <t>5201314120926</t>
   </si>
   <si>
@@ -250,40 +256,43 @@
     <t>87250510</t>
   </si>
   <si>
+    <t>Pantene</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
-    <t>Pantene</t>
-  </si>
-  <si>
     <t>Bazaar</t>
   </si>
   <si>
+    <t>Neomat</t>
+  </si>
+  <si>
     <t>Nutella</t>
   </si>
   <si>
-    <t>Neomat</t>
+    <t>Tasty</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Colgate</t>
   </si>
   <si>
     <t>Kelloggs</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
     <t>Dixan</t>
   </si>
   <si>
     <t>3 Άλφα</t>
   </si>
   <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Ava</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Royal Dutch</t>
@@ -671,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -755,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -778,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>3.98</v>
@@ -790,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -813,10 +822,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -825,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -836,7 +845,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -848,16 +857,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H5" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>80</v>
@@ -883,19 +892,19 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>3.78</v>
+        <v>1.55</v>
       </c>
       <c r="H6" s="2">
-        <v>2.95</v>
+        <v>1.15</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -918,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
         <v>8.949999999999999</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -953,30 +962,30 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>8.949999999999999</v>
+        <v>3.78</v>
       </c>
       <c r="H8" s="2">
-        <v>5.59</v>
+        <v>2.95</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -988,30 +997,30 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I9" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1023,25 +1032,25 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1058,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2">
         <v>5.95</v>
@@ -1070,18 +1079,18 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>3.83</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1093,25 +1102,25 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1128,10 +1137,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>5.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H13" s="2">
         <v>5.59</v>
@@ -1140,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1163,25 +1172,25 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="H14" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0.88</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1198,25 +1207,25 @@
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1233,25 +1242,25 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>2.95</v>
+        <v>3.98</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1.19</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1268,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2">
         <v>3.98</v>
@@ -1280,13 +1289,13 @@
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="2">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1303,10 +1312,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1315,18 +1324,18 @@
         <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="2">
-        <v>1.21</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1338,25 +1347,25 @@
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H19" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="2">
-        <v>0.93</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1373,25 +1382,25 @@
         <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="2">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1408,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2">
         <v>3.35</v>
@@ -1420,18 +1429,18 @@
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1">
         <v>2</v>
       </c>
       <c r="L21" s="2">
-        <v>4.59</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>43998</v>
@@ -1443,30 +1452,30 @@
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1478,25 +1487,25 @@
         <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H23" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
       </c>
       <c r="L23" s="2">
-        <v>1.86</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1513,7 +1522,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2">
         <v>3.98</v>
@@ -1525,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -1548,7 +1557,7 @@
         <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
         <v>7.95</v>
@@ -1560,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -1571,7 +1580,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1583,30 +1592,30 @@
         <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>3.98</v>
+        <v>3.45</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="2">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>43998</v>
@@ -1618,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="H27" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>87</v>
@@ -1636,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="2">
-        <v>4.49</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1653,10 +1662,10 @@
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>1.2</v>
+        <v>7.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1665,18 +1674,18 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="1">
         <v>3</v>
       </c>
       <c r="L28" s="2">
-        <v>2.04</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1688,25 +1697,25 @@
         <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>7.95</v>
+        <v>2.95</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K29" s="1">
         <v>3</v>
       </c>
       <c r="L29" s="2">
-        <v>13.47</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1723,25 +1732,25 @@
         <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="2">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="H30" s="2">
-        <v>2.29</v>
+        <v>1.15</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2">
-        <v>6.09</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1758,7 +1767,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2">
         <v>1.2</v>
@@ -1770,13 +1779,13 @@
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" s="2">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1793,30 +1802,30 @@
         <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" s="2">
-        <v>7.97</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>43998</v>
@@ -1828,37 +1837,72 @@
         <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>50</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="1">
+        <v>11</v>
+      </c>
+      <c r="L33" s="2">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44012</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2">
         <v>0.85</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <v>0.59</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="1">
-        <v>22</v>
-      </c>
-      <c r="L33" s="2">
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="K34" s="5">
-        <v>68</v>
-      </c>
-      <c r="L34" s="5">
-        <v>96.09999999999999</v>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="1">
+        <v>67</v>
+      </c>
+      <c r="L34" s="2">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="K35" s="5">
+        <v>131</v>
+      </c>
+      <c r="L35" s="5">
+        <v>145.04</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I33">
+  <conditionalFormatting sqref="I1:I34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1870,7 +1914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J33">
+  <conditionalFormatting sqref="J1:J34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -58,198 +58,198 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
+    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
+  </si>
+  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
-  </si>
-  <si>
     <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
   </si>
   <si>
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
     <t>4015600948016</t>
   </si>
   <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
     <t>8001090724984</t>
   </si>
   <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
     <t>5208086416820</t>
   </si>
   <si>
-    <t>5201395136939</t>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>5201399010235</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>5201314120902</t>
   </si>
   <si>
     <t>80135876</t>
   </si>
   <si>
+    <t>5201314120926</t>
+  </si>
+  <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5201399010235</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
-    <t>5201314120926</t>
-  </si>
-  <si>
     <t>6001067003366</t>
   </si>
   <si>
@@ -259,40 +259,40 @@
     <t>Pantene</t>
   </si>
   <si>
+    <t>Neomat</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
+    <t>Colgate</t>
+  </si>
+  <si>
     <t>Bazaar</t>
   </si>
   <si>
-    <t>Neomat</t>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Kelloggs</t>
+  </si>
+  <si>
+    <t>3 Άλφα</t>
+  </si>
+  <si>
+    <t>Dixan</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
+    <t>Ava</t>
   </si>
   <si>
     <t>Nutella</t>
   </si>
   <si>
     <t>Tasty</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>Dixan</t>
-  </si>
-  <si>
-    <t>3 Άλφα</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Ava</t>
   </si>
   <si>
     <t>Royal Dutch</t>
@@ -775,7 +775,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4">
         <v>43998</v>
@@ -790,16 +790,16 @@
         <v>48</v>
       </c>
       <c r="G3" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -895,16 +895,16 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H6" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -930,22 +930,22 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H7" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -965,22 +965,22 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>3.78</v>
+        <v>5.95</v>
       </c>
       <c r="H8" s="2">
-        <v>2.95</v>
+        <v>5.59</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>2.61</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1000,27 +1000,27 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>1.7</v>
+        <v>5.95</v>
       </c>
       <c r="H9" s="2">
-        <v>1.3</v>
+        <v>5.59</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1.15</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1035,22 +1035,22 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H10" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>3.83</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1070,7 +1070,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>5.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H11" s="2">
         <v>5.59</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1105,22 +1105,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="H12" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1140,22 +1140,22 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>8.949999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="H13" s="2">
-        <v>5.59</v>
+        <v>1.15</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>4.51</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1175,27 +1175,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1210,22 +1210,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I15" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="2">
-        <v>1.21</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1245,27 +1245,27 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>3.98</v>
+        <v>4.3</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="2">
-        <v>1.91</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1280,22 +1280,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1315,22 +1315,22 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <v>3.82</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1385,22 +1385,22 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1">
         <v>2</v>
       </c>
       <c r="L20" s="2">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1420,7 +1420,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1429,18 +1429,18 @@
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="1">
         <v>2</v>
       </c>
       <c r="L21" s="2">
-        <v>3.78</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>43998</v>
@@ -1455,27 +1455,27 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H22" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2">
-        <v>1.86</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1490,22 +1490,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1525,7 +1525,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2">
-        <v>4.5</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1569,18 +1569,18 @@
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="2">
-        <v>8.98</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1595,27 +1595,27 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="H26" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K26" s="1">
         <v>3</v>
       </c>
       <c r="L26" s="2">
-        <v>4.49</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>43998</v>
@@ -1633,24 +1633,24 @@
         <v>2.95</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
       </c>
       <c r="L27" s="2">
-        <v>3.57</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <v>43998</v>
@@ -1665,27 +1665,27 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>7.95</v>
+        <v>1.55</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2">
-        <v>13.47</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1700,22 +1700,22 @@
         <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="H29" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1735,22 +1735,22 @@
         <v>75</v>
       </c>
       <c r="G30" s="2">
-        <v>1.55</v>
+        <v>3.78</v>
       </c>
       <c r="H30" s="2">
-        <v>1.15</v>
+        <v>2.95</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
       </c>
       <c r="L30" s="2">
-        <v>3.72</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1779,18 +1779,18 @@
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L31" s="2">
-        <v>2.72</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1805,22 +1805,22 @@
         <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K32" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L32" s="2">
-        <v>3.97</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,7 +1849,7 @@
         <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K33" s="1">
         <v>11</v>
@@ -1887,18 +1887,18 @@
         <v>93</v>
       </c>
       <c r="K34" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L34" s="2">
-        <v>32.47</v>
+        <v>35.81</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="L35" s="5">
-        <v>145.04</v>
+        <v>174.96</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -58,201 +58,201 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
     <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
     <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
     <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>AVA PERLE 430ML CLASSIC</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
+    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
+  </si>
+  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
-  </si>
-  <si>
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
     <t>4084500290532</t>
   </si>
   <si>
-    <t>5201395136939</t>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
   </si>
   <si>
     <t>8690530044494</t>
   </si>
   <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
+    <t>8850006324172</t>
   </si>
   <si>
     <t>4084500290570</t>
   </si>
   <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
+    <t>4084500290242</t>
   </si>
   <si>
     <t>8714789115474</t>
   </si>
   <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
     <t>5208086412464</t>
   </si>
   <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
     <t>5053827215671</t>
   </si>
   <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
     <t>5201399010235</t>
   </si>
   <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>5201314120902</t>
+  </si>
+  <si>
+    <t>80135876</t>
   </si>
   <si>
     <t>7891024132074</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
     <t>5201314120926</t>
   </si>
   <si>
+    <t>6001067003366</t>
+  </si>
+  <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>6001067003366</t>
-  </si>
-  <si>
     <t>87250510</t>
   </si>
   <si>
@@ -262,28 +262,28 @@
     <t>Neomat</t>
   </si>
   <si>
+    <t>Bazaar</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
     <t>Colgate</t>
   </si>
   <si>
-    <t>Bazaar</t>
-  </si>
-  <si>
     <t>Farmer</t>
   </si>
   <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
+    <t>Dixan</t>
+  </si>
+  <si>
     <t>Kelloggs</t>
   </si>
   <si>
     <t>3 Άλφα</t>
-  </si>
-  <si>
-    <t>Dixan</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Ava</t>
@@ -825,7 +825,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -860,27 +860,27 @@
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -895,22 +895,22 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -950,7 +950,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -965,22 +965,22 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H8" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>3.83</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1000,7 +1000,7 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>5.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H9" s="2">
         <v>5.59</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1035,27 +1035,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>2.25</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1070,22 +1070,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>8.949999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="H11" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>4.51</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>43998</v>
@@ -1140,22 +1140,22 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H13" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0.93</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1175,27 +1175,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1210,22 +1210,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="H15" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
       </c>
       <c r="L15" s="2">
-        <v>1.76</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1245,22 +1245,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>4.3</v>
+        <v>3.98</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1280,27 +1280,27 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="H17" s="2">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1315,13 +1315,13 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>82</v>
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <v>4.59</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1350,7 +1350,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>3.98</v>
+        <v>3.35</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1359,13 +1359,13 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
       </c>
       <c r="L19" s="2">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1385,7 +1385,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>3.98</v>
+        <v>3.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>4.5</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1432,15 +1432,15 @@
         <v>80</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>43998</v>
@@ -1455,27 +1455,27 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1">
         <v>3</v>
       </c>
       <c r="L22" s="2">
-        <v>5.67</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1490,13 +1490,13 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>3.45</v>
+        <v>7.95</v>
       </c>
       <c r="H23" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>87</v>
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>4.49</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
@@ -1560,27 +1560,27 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>7.95</v>
+        <v>4.3</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="2">
-        <v>13.47</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1595,22 +1595,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I26" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="2">
-        <v>3.57</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1630,27 +1630,27 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="H27" s="2">
-        <v>2.29</v>
+        <v>1.15</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2">
-        <v>6.09</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>43998</v>
@@ -1665,27 +1665,27 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="H28" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L28" s="2">
-        <v>3.72</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1700,27 +1700,27 @@
         <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>1.2</v>
+        <v>3.78</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L29" s="2">
-        <v>2.72</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1735,22 +1735,22 @@
         <v>75</v>
       </c>
       <c r="G30" s="2">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H30" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K30" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L30" s="2">
-        <v>10.44</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1782,15 +1782,15 @@
         <v>90</v>
       </c>
       <c r="K31" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L31" s="2">
-        <v>5.33</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1805,27 +1805,27 @@
         <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>1.7</v>
+        <v>2.95</v>
       </c>
       <c r="H32" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K32" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L32" s="2">
-        <v>10.35</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4">
         <v>43998</v>
@@ -1840,22 +1840,22 @@
         <v>78</v>
       </c>
       <c r="G33" s="2">
-        <v>2.95</v>
+        <v>1.7</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I33" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K33" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L33" s="2">
-        <v>12.73</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1887,18 +1887,18 @@
         <v>93</v>
       </c>
       <c r="K34" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L34" s="2">
-        <v>35.81</v>
+        <v>42.51</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="L35" s="5">
-        <v>174.96</v>
+        <v>221.76</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -52,87 +52,87 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πελάτες Τιμή Πώλησης</t>
+  </si>
+  <si>
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
-    <t>Πελάτες Τιμή Πώλησης</t>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
   </si>
   <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
     <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
@@ -145,93 +145,93 @@
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
+    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
+  </si>
+  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
     <t>8001090724984</t>
   </si>
   <si>
-    <t>5201395136939</t>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4084500290532</t>
   </si>
   <si>
     <t>4015600948016</t>
   </si>
   <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
   </si>
   <si>
     <t>4084500929982</t>
   </si>
   <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
+    <t>5208086412464</t>
   </si>
   <si>
     <t>8690530044494</t>
   </si>
   <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5201399010235</t>
   </si>
   <si>
     <t>8714789115474</t>
   </si>
   <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201399010235</t>
-  </si>
-  <si>
     <t>5208086420353</t>
   </si>
   <si>
@@ -244,34 +244,34 @@
     <t>7891024132074</t>
   </si>
   <si>
+    <t>6001067003366</t>
+  </si>
+  <si>
     <t>5201314120926</t>
   </si>
   <si>
-    <t>6001067003366</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
     <t>87250510</t>
   </si>
   <si>
+    <t>Neomat</t>
+  </si>
+  <si>
     <t>Pantene</t>
   </si>
   <si>
-    <t>Neomat</t>
+    <t>Colgate</t>
   </si>
   <si>
     <t>Bazaar</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>Selpak</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Farmer</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
@@ -755,13 +755,13 @@
         <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>80</v>
@@ -790,13 +790,13 @@
         <v>48</v>
       </c>
       <c r="G3" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H3" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>81</v>
@@ -825,27 +825,27 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>3.83</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -895,13 +895,13 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H6" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>81</v>
@@ -910,12 +910,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -939,18 +939,18 @@
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -965,27 +965,27 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1070,7 +1070,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1079,18 +1079,18 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1105,27 +1105,27 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>1.21</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>43998</v>
@@ -1149,13 +1149,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>2.25</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1175,27 +1175,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>4.5</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1210,27 +1210,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
       </c>
       <c r="L15" s="2">
-        <v>2.42</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1254,7 +1254,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -1280,22 +1280,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="H17" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>1.76</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1315,27 +1315,27 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H18" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>1.86</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1359,13 +1359,13 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>4.59</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1385,27 +1385,27 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1">
         <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>5.67</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>43998</v>
@@ -1420,7 +1420,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>6.75</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1455,22 +1455,22 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.95</v>
+        <v>7.95</v>
       </c>
       <c r="H22" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1">
         <v>3</v>
       </c>
       <c r="L22" s="2">
-        <v>6.09</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1490,27 +1490,27 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>7.95</v>
+        <v>1.55</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K23" s="1">
         <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>13.47</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>43998</v>
@@ -1525,22 +1525,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>7.95</v>
+        <v>4.3</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>13.47</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1560,22 +1560,22 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I25" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="1">
         <v>4</v>
       </c>
       <c r="L25" s="2">
-        <v>7.64</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1595,27 +1595,27 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="H26" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="2">
-        <v>5.99</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>43998</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1">
         <v>5</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <v>43998</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1744,7 +1744,7 @@
         <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" s="1">
         <v>8</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>43998</v>
@@ -1770,27 +1770,27 @@
         <v>76</v>
       </c>
       <c r="G31" s="2">
-        <v>1.2</v>
+        <v>2.95</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K31" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" s="2">
-        <v>7.37</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1805,27 +1805,27 @@
         <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K32" s="1">
         <v>12</v>
       </c>
       <c r="L32" s="2">
-        <v>13.92</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>43998</v>
@@ -1852,15 +1852,15 @@
         <v>92</v>
       </c>
       <c r="K33" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L33" s="2">
-        <v>19.55</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <v>43998</v>
@@ -1887,18 +1887,18 @@
         <v>93</v>
       </c>
       <c r="K34" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L34" s="2">
-        <v>42.51</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L35" s="5">
-        <v>221.76</v>
+        <v>241.69</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -64,39 +64,39 @@
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
@@ -106,28 +106,28 @@
     <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
@@ -163,39 +163,39 @@
     <t>8001090724984</t>
   </si>
   <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
     <t>5201395137530</t>
   </si>
   <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
   </si>
   <si>
     <t>4015600948016</t>
   </si>
   <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
     <t>5208086416820</t>
   </si>
   <si>
-    <t>4084500290570</t>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
   </si>
   <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
     <t>8690530044494</t>
   </si>
   <si>
@@ -205,28 +205,28 @@
     <t>4084500929951</t>
   </si>
   <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
     <t>8690530044500</t>
   </si>
   <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201399010235</t>
+    <t>5208086400034</t>
   </si>
   <si>
     <t>8714789115474</t>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>3 Άλφα</t>
   </si>
   <si>
     <t>Ava</t>
@@ -840,12 +837,12 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>3.83</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -860,27 +857,27 @@
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H5" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -895,22 +892,22 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>2.25</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -930,27 +927,27 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -965,27 +962,27 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>2.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I8" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1.21</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -1000,27 +997,27 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H9" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1035,27 +1032,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H10" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0.93</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1070,22 +1067,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1120,12 +1117,12 @@
         <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>4.5</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>43998</v>
@@ -1140,27 +1137,27 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>4.16</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1175,22 +1172,22 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="H14" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>1.76</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1257,10 +1254,10 @@
         <v>81</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1330,12 +1327,12 @@
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>5.67</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1350,27 +1347,27 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>6.48</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1385,27 +1382,27 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>2.95</v>
+        <v>7.95</v>
       </c>
       <c r="H20" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1">
         <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>6.09</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>43998</v>
@@ -1420,22 +1417,22 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>7.95</v>
+        <v>1.55</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>13.47</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1455,27 +1452,27 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>7.95</v>
+        <v>4.3</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
-        <v>13.47</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1490,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>1.55</v>
+        <v>7.95</v>
       </c>
       <c r="H23" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="2">
-        <v>2.79</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1525,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K24" s="1">
         <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>7.64</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1560,7 +1557,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
         <v>1.69</v>
@@ -1569,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2">
-        <v>5.99</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1674,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="1">
         <v>6</v>
@@ -1709,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" s="2">
-        <v>18.27</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1747,10 +1744,10 @@
         <v>82</v>
       </c>
       <c r="K30" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" s="2">
-        <v>9.52</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1814,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="1">
         <v>12</v>
@@ -1849,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L33" s="2">
-        <v>24.15</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1884,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L34" s="2">
-        <v>44.43</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L35" s="5">
-        <v>241.69</v>
+        <v>265.07</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -52,37 +52,40 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πωλήσεις Έκπτωση 1</t>
+  </si>
+  <si>
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
-    <t>Πωλήσεις Έκπτωση 1</t>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
     <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
@@ -91,42 +94,39 @@
     <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
@@ -157,31 +157,34 @@
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
     <t>5201395136939</t>
   </si>
   <si>
-    <t>8001090724984</t>
+    <t>5201395137530</t>
   </si>
   <si>
     <t>5201395133334</t>
   </si>
   <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
     <t>4084500290532</t>
   </si>
   <si>
-    <t>5201395137530</t>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
   </si>
   <si>
     <t>8850006324172</t>
   </si>
   <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
+    <t>5208086412464</t>
   </si>
   <si>
     <t>5208086416820</t>
@@ -190,42 +193,39 @@
     <t>4084500929982</t>
   </si>
   <si>
-    <t>5208086412464</t>
+    <t>8690530044494</t>
   </si>
   <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
     <t>4084500290600</t>
   </si>
   <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
     <t>4084500929951</t>
   </si>
   <si>
     <t>8690530044517</t>
   </si>
   <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
     <t>5053827215671</t>
   </si>
   <si>
     <t>5201395138339</t>
   </si>
   <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
     <t>5208086400034</t>
   </si>
   <si>
@@ -256,28 +256,28 @@
     <t>87250510</t>
   </si>
   <si>
+    <t>Pantene</t>
+  </si>
+  <si>
     <t>Neomat</t>
   </si>
   <si>
-    <t>Pantene</t>
-  </si>
-  <si>
     <t>Colgate</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>Bazaar</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
     <t>Selpak</t>
   </si>
   <si>
+    <t>Dixan</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Dixan</t>
   </si>
   <si>
     <t>Kelloggs</t>
@@ -752,13 +752,13 @@
         <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H2" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>80</v>
@@ -787,13 +787,13 @@
         <v>48</v>
       </c>
       <c r="G3" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>81</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>43998</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>4.51</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -857,13 +857,13 @@
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>81</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -892,13 +892,13 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H6" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>80</v>
@@ -907,12 +907,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>3.83</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -927,22 +927,22 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1.21</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -962,13 +962,13 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H8" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>80</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -997,13 +997,13 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>81</v>
@@ -1012,12 +1012,12 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1032,27 +1032,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="H11" s="2">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1102,22 +1102,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>4.16</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,27 +1137,27 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="H13" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>1.76</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1172,7 +1172,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1181,18 +1181,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <v>4.5</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1216,18 +1216,18 @@
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
       </c>
       <c r="L15" s="2">
-        <v>3.56</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1251,7 +1251,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
@@ -1277,27 +1277,27 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>6.75</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>6.48</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,27 +1347,27 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="H19" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>6.09</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1391,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1">
         <v>3</v>
@@ -1417,22 +1417,22 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H21" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>2.79</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1452,27 +1452,27 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
       </c>
       <c r="L22" s="2">
-        <v>7.64</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1487,27 +1487,27 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>7.95</v>
+        <v>4.3</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" s="1">
         <v>4</v>
       </c>
       <c r="L23" s="2">
-        <v>17.96</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>43998</v>
@@ -1522,7 +1522,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>3.35</v>
+        <v>7.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1531,18 +1531,18 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1">
         <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>7.56</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>43998</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="1">
         <v>5</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>43998</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27" s="1">
         <v>5</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>43998</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>43998</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4">
         <v>43998</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4">
         <v>43998</v>
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="2">
-        <v>45.39</v>
+        <v>45.87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L35" s="5">
-        <v>265.07</v>
+        <v>267.58</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -52,235 +52,235 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πελάτες Τιμή Πώλησης</t>
+  </si>
+  <si>
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
-    <t>Πελάτες Τιμή Πώλησης</t>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
+    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
+  </si>
+  <si>
     <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
   </si>
   <si>
-    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
     <t>8001090724984</t>
   </si>
   <si>
-    <t>5201395136939</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
+    <t>4084500290570</t>
   </si>
   <si>
     <t>4084500290532</t>
   </si>
   <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
   </si>
   <si>
     <t>8850006324172</t>
   </si>
   <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5208086400034</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>5201314120902</t>
   </si>
   <si>
     <t>8690530044500</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
     <t>80135876</t>
   </si>
   <si>
     <t>7891024132074</t>
   </si>
   <si>
+    <t>5201314120926</t>
+  </si>
+  <si>
     <t>6001067003366</t>
   </si>
   <si>
-    <t>5201314120926</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
     <t>87250510</t>
   </si>
   <si>
+    <t>Neomat</t>
+  </si>
+  <si>
     <t>Pantene</t>
   </si>
   <si>
-    <t>Neomat</t>
+    <t>Bazaar</t>
+  </si>
+  <si>
+    <t>Selpak</t>
+  </si>
+  <si>
+    <t>Dixan</t>
+  </si>
+  <si>
+    <t>Farmer</t>
   </si>
   <si>
     <t>Colgate</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Bazaar</t>
-  </si>
-  <si>
-    <t>Selpak</t>
-  </si>
-  <si>
-    <t>Dixan</t>
+    <t>Kelloggs</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
   </si>
   <si>
     <t>Ava</t>
@@ -752,13 +752,13 @@
         <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>80</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>43998</v>
@@ -796,18 +796,18 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>43998</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -901,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -936,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -997,13 +997,13 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H9" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>81</v>
@@ -1012,12 +1012,12 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1032,27 +1032,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>1.21</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1067,22 +1067,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H11" s="2">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1102,27 +1102,27 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>1.55</v>
+        <v>3.15</v>
       </c>
       <c r="H12" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>1.86</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>43998</v>
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1172,7 +1172,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1181,18 +1181,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>3.56</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>4.5</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1242,27 +1242,27 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>6.75</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.98</v>
+        <v>3.35</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1321,18 +1321,18 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>6.75</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1347,7 +1347,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1356,18 +1356,18 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>6.48</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1382,13 +1382,13 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>7.95</v>
+        <v>2.99</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>86</v>
@@ -1397,12 +1397,12 @@
         <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>13.47</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>43998</v>
@@ -1417,22 +1417,22 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K21" s="1">
         <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>7.56</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1452,22 +1452,22 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.95</v>
+        <v>7.95</v>
       </c>
       <c r="H22" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
       </c>
       <c r="L22" s="2">
-        <v>8.119999999999999</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1487,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I23" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>7.64</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1522,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>7.95</v>
+        <v>2.1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" s="2">
-        <v>17.96</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1557,22 +1557,22 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>2.1</v>
+        <v>2.99</v>
       </c>
       <c r="H25" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1">
         <v>5</v>
       </c>
       <c r="L25" s="2">
-        <v>9.300000000000001</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I26" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="2">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1627,27 +1627,27 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="H27" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="2">
-        <v>4.65</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <v>43998</v>
@@ -1662,7 +1662,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1671,18 +1671,18 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" s="2">
-        <v>4.08</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1741,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K30" s="1">
         <v>9</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>43998</v>
@@ -1767,27 +1767,27 @@
         <v>76</v>
       </c>
       <c r="G31" s="2">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K31" s="1">
         <v>12</v>
       </c>
       <c r="L31" s="2">
-        <v>13.92</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1802,27 +1802,27 @@
         <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>1.2</v>
+        <v>2.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K32" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L32" s="2">
-        <v>8.050000000000001</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>43998</v>
@@ -1849,15 +1849,15 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2">
-        <v>29.9</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <v>43998</v>
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L34" s="2">
-        <v>45.87</v>
+        <v>47.79</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L35" s="5">
-        <v>267.58</v>
+        <v>289.8200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -64,48 +64,48 @@
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
     <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
@@ -163,48 +163,48 @@
     <t>5201395137134</t>
   </si>
   <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
     <t>5201395137530</t>
   </si>
   <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
     <t>8690530044517</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>8690530044500</t>
   </si>
   <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
     <t>80135876</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
   </si>
   <si>
     <t>5201314120926</t>
@@ -837,12 +837,12 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>3.83</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>43998</v>
@@ -857,22 +857,22 @@
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H5" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1009,15 +1009,15 @@
         <v>81</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1032,27 +1032,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1067,22 +1067,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>1.55</v>
+        <v>3.15</v>
       </c>
       <c r="H11" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>1.86</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>3.56</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1149,10 +1149,10 @@
         <v>81</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>4.16</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1181,18 +1181,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>6.75</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,22 +1207,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>7.95</v>
+        <v>1.75</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>13.47</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1242,22 +1242,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H16" s="2">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1277,22 +1277,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>1.55</v>
+        <v>5.95</v>
       </c>
       <c r="H17" s="2">
-        <v>1.15</v>
+        <v>5.59</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>2.79</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1674,15 +1674,15 @@
         <v>83</v>
       </c>
       <c r="K28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" s="2">
-        <v>12.39</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>43998</v>
@@ -1697,27 +1697,27 @@
         <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H29" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" s="2">
-        <v>20.88</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1732,22 +1732,22 @@
         <v>75</v>
       </c>
       <c r="G30" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H30" s="2">
         <v>2.95</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
       <c r="I30" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K30" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2">
-        <v>10.71</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L33" s="2">
-        <v>34.5</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L35" s="5">
-        <v>289.8200000000001</v>
+        <v>312.01</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -106,18 +106,18 @@
     <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
   </si>
   <si>
@@ -133,21 +133,21 @@
     <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
     <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
+    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
-  </si>
-  <si>
     <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
   </si>
   <si>
@@ -205,18 +205,18 @@
     <t>5201395137530</t>
   </si>
   <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
     <t>8690530044517</t>
   </si>
   <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
     <t>5201395138339</t>
   </si>
   <si>
@@ -232,19 +232,19 @@
     <t>5208086420353</t>
   </si>
   <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
     <t>5201314120902</t>
   </si>
   <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
     <t>7891024132074</t>
   </si>
   <si>
+    <t>5201314120926</t>
+  </si>
+  <si>
     <t>80135876</t>
-  </si>
-  <si>
-    <t>5201314120926</t>
   </si>
   <si>
     <t>6001067003366</t>
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>6.48</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,22 +1347,22 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>6.75</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1382,7 +1382,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="2">
-        <v>3.63</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1417,22 +1417,22 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="1">
         <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>7.64</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1627,7 +1627,7 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L27" s="2">
-        <v>4.08</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1662,7 +1662,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>3.35</v>
+        <v>1.2</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K28" s="1">
         <v>8</v>
       </c>
       <c r="L28" s="2">
-        <v>14.28</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>43998</v>
@@ -1732,27 +1732,27 @@
         <v>75</v>
       </c>
       <c r="G30" s="2">
-        <v>3.78</v>
+        <v>1.2</v>
       </c>
       <c r="H30" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L30" s="2">
-        <v>28.71</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>43998</v>
@@ -1767,22 +1767,22 @@
         <v>76</v>
       </c>
       <c r="G31" s="2">
-        <v>1.2</v>
+        <v>3.78</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
-        <v>8.050000000000001</v>
+        <v>33.93</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>86</v>
       </c>
       <c r="K32" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L32" s="2">
-        <v>16.3</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L33" s="2">
-        <v>37.95</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L34" s="2">
-        <v>47.79</v>
+        <v>50.64</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L35" s="5">
-        <v>312.01</v>
+        <v>327.54</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -70,63 +70,63 @@
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
     <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
@@ -169,63 +169,63 @@
     <t>4015600948016</t>
   </si>
   <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
     <t>8001090724984</t>
   </si>
   <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
     <t>4084500290242</t>
   </si>
   <si>
     <t>5208086416820</t>
   </si>
   <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
     <t>8690530044494</t>
   </si>
   <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>8850006324172</t>
   </si>
   <si>
     <t>5201395138438</t>
   </si>
   <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5208086400034</t>
+  </si>
+  <si>
     <t>5208086412464</t>
   </si>
   <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
     <t>8714789115474</t>
   </si>
   <si>
@@ -268,19 +268,19 @@
     <t>Selpak</t>
   </si>
   <si>
+    <t>Colgate</t>
+  </si>
+  <si>
     <t>Dixan</t>
   </si>
   <si>
+    <t>Kelloggs</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Farmer</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Ava</t>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>3.56</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1114,10 +1114,10 @@
         <v>81</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>4.16</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,18 +1146,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>6.75</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1172,22 +1172,22 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>7.95</v>
+        <v>1.55</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>13.47</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1207,27 +1207,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>1.75</v>
+        <v>5.95</v>
       </c>
       <c r="H15" s="2">
-        <v>0.99</v>
+        <v>5.59</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>2.64</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1242,27 +1242,27 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H16" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>2.79</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1277,22 +1277,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>5.95</v>
+        <v>2.99</v>
       </c>
       <c r="H17" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>12.85</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>6.75</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,22 +1347,22 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>2.99</v>
+        <v>7.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>3.63</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1391,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>43998</v>
@@ -1452,22 +1452,22 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>7.95</v>
+        <v>2.95</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>17.96</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1487,10 +1487,10 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H23" s="2">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>10.15</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1522,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H24" s="2">
-        <v>1.69</v>
+        <v>0.99</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K24" s="1">
         <v>5</v>
       </c>
       <c r="L24" s="2">
-        <v>9.300000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1566,7 +1566,7 @@
         <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1">
         <v>5</v>
@@ -1706,7 +1706,7 @@
         <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1">
         <v>9</v>
@@ -1779,10 +1779,10 @@
         <v>90</v>
       </c>
       <c r="K31" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2">
-        <v>33.93</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1811,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K32" s="1">
         <v>16</v>
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L33" s="2">
-        <v>39.1</v>
+        <v>42.55</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L35" s="5">
-        <v>327.54</v>
+        <v>337.14</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -64,75 +64,75 @@
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
     <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
     <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
   </si>
   <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
@@ -163,75 +163,75 @@
     <t>5201395137134</t>
   </si>
   <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
     <t>5201395133334</t>
   </si>
   <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
     <t>4084500290532</t>
   </si>
   <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
   </si>
   <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
   </si>
   <si>
     <t>4084500290600</t>
   </si>
   <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
     <t>8690530044494</t>
   </si>
   <si>
     <t>5208086416387</t>
   </si>
   <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
   </si>
   <si>
     <t>5201395138339</t>
   </si>
   <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
+    <t>5208086400034</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
+    <t>5208086420353</t>
   </si>
   <si>
     <t>8714789115474</t>
   </si>
   <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
     <t>8690530044500</t>
   </si>
   <si>
@@ -265,22 +265,22 @@
     <t>Bazaar</t>
   </si>
   <si>
+    <t>Dixan</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Dixan</t>
-  </si>
-  <si>
     <t>Kelloggs</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Farmer</t>
   </si>
   <si>
     <t>Ava</t>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>43998</v>
@@ -822,22 +822,22 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H4" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -927,22 +927,22 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>4.5</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1082,12 +1082,12 @@
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>4.16</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1102,22 +1102,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>6.75</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,18 +1146,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>5.34</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1172,27 +1172,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>1.55</v>
+        <v>7.95</v>
       </c>
       <c r="H14" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>2.79</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,22 +1207,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H15" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>12.85</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1242,22 +1242,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>6.75</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1277,27 +1277,27 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>3.63</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,22 +1312,22 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>7.95</v>
+        <v>1.55</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>13.47</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,22 +1347,22 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>7.95</v>
+        <v>4.3</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>17.96</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1382,22 +1382,22 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
       </c>
       <c r="L20" s="2">
-        <v>7.64</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1417,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>3.35</v>
+        <v>7.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>8.369999999999999</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1452,10 +1452,10 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H22" s="2">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>10.15</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1487,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H23" s="2">
-        <v>1.69</v>
+        <v>0.99</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="1">
         <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>9.300000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1522,10 +1522,10 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="H24" s="2">
-        <v>0.99</v>
+        <v>2.29</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1534,15 +1534,15 @@
         <v>88</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="2">
-        <v>4.4</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>43998</v>
@@ -1557,27 +1557,27 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I25" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25" s="2">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="H26" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K26" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26" s="2">
-        <v>5.58</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1636,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K27" s="1">
         <v>8</v>
@@ -1814,10 +1814,10 @@
         <v>84</v>
       </c>
       <c r="K32" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L32" s="2">
-        <v>18.68</v>
+        <v>19.87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" s="2">
-        <v>42.55</v>
+        <v>44.85</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L34" s="2">
-        <v>50.64</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L35" s="5">
-        <v>337.14</v>
+        <v>346.03</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -64,51 +64,51 @@
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
     <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
@@ -118,39 +118,39 @@
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
   </si>
   <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
     <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
+    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
@@ -163,51 +163,51 @@
     <t>5201395137134</t>
   </si>
   <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
     <t>8001090724984</t>
   </si>
   <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
     <t>4084500290570</t>
   </si>
   <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
     <t>4084500290532</t>
   </si>
   <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
     <t>4084500929982</t>
   </si>
   <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
     <t>4084500290242</t>
   </si>
   <si>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
     <t>5201395137530</t>
   </si>
   <si>
     <t>4084500929951</t>
   </si>
   <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
     <t>8850006324172</t>
   </si>
   <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
     <t>5053827215671</t>
   </si>
   <si>
@@ -217,39 +217,39 @@
     <t>5201395138339</t>
   </si>
   <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
     <t>5208086400034</t>
   </si>
   <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
+    <t>8714789115474</t>
   </si>
   <si>
     <t>5208086420353</t>
   </si>
   <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
     <t>8690530044500</t>
   </si>
   <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
     <t>5201314120902</t>
   </si>
   <si>
-    <t>7891024132074</t>
-  </si>
-  <si>
     <t>5201314120926</t>
   </si>
   <si>
+    <t>6001067003366</t>
+  </si>
+  <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>6001067003366</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
@@ -268,10 +268,10 @@
     <t>Dixan</t>
   </si>
   <si>
+    <t>Selpak</t>
+  </si>
+  <si>
     <t>Colgate</t>
-  </si>
-  <si>
-    <t>Selpak</t>
   </si>
   <si>
     <t>Kelloggs</t>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>43998</v>
@@ -822,22 +822,22 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -927,22 +927,22 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H7" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -982,7 +982,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -997,27 +997,27 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>4.16</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1032,22 +1032,22 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H10" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>1.86</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1079,15 +1079,15 @@
         <v>81</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1102,22 +1102,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H12" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>12.85</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>6.75</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>7.95</v>
+        <v>3.15</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1181,18 +1181,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>13.47</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,27 +1207,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>6.75</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1242,22 +1242,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>2.99</v>
+        <v>5.95</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I16" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>3.63</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1277,7 +1277,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1286,18 +1286,18 @@
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>5.34</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,22 +1312,22 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="H18" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>2.79</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1391,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
@@ -1452,10 +1452,10 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H22" s="2">
-        <v>1.69</v>
+        <v>0.99</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>9.300000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1487,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="H23" s="2">
-        <v>0.99</v>
+        <v>2.29</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" s="2">
-        <v>4.4</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1522,27 +1522,27 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H24" s="2">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1">
         <v>6</v>
       </c>
       <c r="L24" s="2">
-        <v>12.18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>43998</v>
@@ -1557,27 +1557,27 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>1.55</v>
+        <v>2.99</v>
       </c>
       <c r="H25" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25" s="2">
-        <v>5.58</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I26" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26" s="1">
         <v>7</v>
       </c>
       <c r="L26" s="2">
-        <v>8.460000000000001</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1636,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" s="1">
         <v>8</v>
@@ -1662,22 +1662,22 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>1.2</v>
+        <v>2.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" s="2">
-        <v>5.44</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1697,22 +1697,22 @@
         <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
-        <v>10.71</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>43998</v>
@@ -1767,27 +1767,27 @@
         <v>76</v>
       </c>
       <c r="G31" s="2">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H31" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K31" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L31" s="2">
-        <v>36.54</v>
+        <v>19.87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>43998</v>
@@ -1802,22 +1802,22 @@
         <v>77</v>
       </c>
       <c r="G32" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H32" s="2">
         <v>2.95</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
       <c r="I32" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K32" s="1">
         <v>17</v>
       </c>
       <c r="L32" s="2">
-        <v>19.87</v>
+        <v>44.37</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L35" s="5">
-        <v>346.03</v>
+        <v>359.9</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -67,66 +67,66 @@
     <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
     <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
     <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
@@ -166,66 +166,66 @@
     <t>5201395133334</t>
   </si>
   <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
     <t>4015600948016</t>
   </si>
   <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
+    <t>4084500290600</t>
   </si>
   <si>
     <t>4084500929982</t>
   </si>
   <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>4084500290600</t>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5208086416387</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
   </si>
   <si>
     <t>5201395138438</t>
   </si>
   <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5208086400034</t>
   </si>
   <si>
     <t>8850006324172</t>
   </si>
   <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
     <t>8714789115474</t>
   </si>
   <si>
@@ -265,22 +265,22 @@
     <t>Bazaar</t>
   </si>
   <si>
+    <t>Selpak</t>
+  </si>
+  <si>
     <t>Dixan</t>
   </si>
   <si>
-    <t>Selpak</t>
+    <t>Kelloggs</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Colgate</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Ava</t>
@@ -947,7 +947,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -962,27 +962,27 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -997,22 +997,22 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H9" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>1.86</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1044,10 +1044,10 @@
         <v>81</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>4.16</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1082,12 +1082,12 @@
         <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>6.75</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1102,22 +1102,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>6.75</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>7.95</v>
+        <v>3.98</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>13.47</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1181,18 +1181,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>5.34</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,27 +1207,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>1.55</v>
+        <v>7.95</v>
       </c>
       <c r="H15" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>2.79</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1242,27 +1242,27 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>5.95</v>
+        <v>4.3</v>
       </c>
       <c r="H16" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="2">
-        <v>12.85</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1277,22 +1277,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2">
-        <v>6.75</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1312,22 +1312,22 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>2.99</v>
+        <v>3.98</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="2">
-        <v>3.63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,27 +1347,27 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>4.3</v>
+        <v>7.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>7.64</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1382,22 +1382,22 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" s="2">
-        <v>8.369999999999999</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1417,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>7.95</v>
+        <v>3.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>83</v>
       </c>
       <c r="K21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" s="2">
-        <v>17.96</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1452,10 +1452,10 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="H22" s="2">
-        <v>0.99</v>
+        <v>2.29</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>87</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2">
-        <v>4.4</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1487,27 +1487,27 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H23" s="2">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="1">
         <v>6</v>
       </c>
       <c r="L23" s="2">
-        <v>12.18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>43998</v>
@@ -1522,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.1</v>
+        <v>2.99</v>
       </c>
       <c r="H24" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L24" s="2">
-        <v>10.8</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1566,7 +1566,7 @@
         <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K25" s="1">
         <v>7</v>
@@ -1604,10 +1604,10 @@
         <v>82</v>
       </c>
       <c r="K26" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L26" s="2">
-        <v>6.51</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1636,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" s="2">
-        <v>14.28</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1671,13 +1671,13 @@
         <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K28" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
-        <v>10.71</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1709,10 +1709,10 @@
         <v>89</v>
       </c>
       <c r="K29" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="2">
-        <v>6.8</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1744,10 +1744,10 @@
         <v>89</v>
       </c>
       <c r="K30" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30" s="2">
-        <v>8.73</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1776,7 +1776,7 @@
         <v>50</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K31" s="1">
         <v>17</v>
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L32" s="2">
-        <v>44.37</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L33" s="2">
-        <v>44.85</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="L35" s="5">
-        <v>359.9</v>
+        <v>395.48</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -103,33 +103,33 @@
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
     <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
     <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
+    <t>Colgate® Max Fresh Cool Mint 100gr</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
     <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
   </si>
   <si>
@@ -202,31 +202,31 @@
     <t>5053827215671</t>
   </si>
   <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
     <t>5208086416387</t>
   </si>
   <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
     <t>8690530044517</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
+    <t>8850006324172</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
     <t>5208086400034</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
   </si>
   <si>
     <t>5208086420353</t>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1277,22 +1277,22 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H17" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1">
         <v>4</v>
       </c>
       <c r="L17" s="2">
-        <v>3.72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1321,18 +1321,18 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1">
         <v>4</v>
       </c>
       <c r="L18" s="2">
-        <v>9</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1347,22 +1347,22 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>7.95</v>
+        <v>1.75</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" s="2">
-        <v>17.96</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1382,22 +1382,22 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H20" s="2">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" s="2">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1472,7 +1472,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1487,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>2.1</v>
+        <v>2.99</v>
       </c>
       <c r="H23" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="2">
-        <v>10.8</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1537,12 +1537,12 @@
         <v>7</v>
       </c>
       <c r="L24" s="2">
-        <v>8.34</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>43998</v>
@@ -1557,22 +1557,22 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>2.99</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I25" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L25" s="2">
-        <v>8.460000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L32" s="2">
-        <v>46.98</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L33" s="2">
-        <v>50.6</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L34" s="2">
-        <v>51.6</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L35" s="5">
-        <v>395.48</v>
+        <v>413.5599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -58,12 +58,12 @@
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
+  </si>
+  <si>
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
   </si>
   <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
     <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
   </si>
   <si>
@@ -88,57 +88,57 @@
     <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
     <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
+  </si>
+  <si>
+    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+  </si>
+  <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
   </si>
   <si>
+    <t>5201395137134</t>
+  </si>
+  <si>
     <t>5201395136939</t>
   </si>
   <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
     <t>5201395133334</t>
   </si>
   <si>
@@ -187,55 +187,55 @@
     <t>4084500929982</t>
   </si>
   <si>
+    <t>8690530044494</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
     <t>5201395137530</t>
   </si>
   <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
+    <t>5208086412464</t>
+  </si>
+  <si>
+    <t>8690530044517</t>
   </si>
   <si>
     <t>5201395138438</t>
   </si>
   <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
     <t>5208086416387</t>
   </si>
   <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
+    <t>8714789115474</t>
+  </si>
+  <si>
+    <t>5208086400034</t>
+  </si>
+  <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>7891024132074</t>
+  </si>
+  <si>
     <t>8850006324172</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
   </si>
   <si>
     <t>5201314120902</t>
@@ -764,10 +764,10 @@
         <v>80</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1087,7 +1087,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>43998</v>
@@ -1102,22 +1102,22 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>5.95</v>
+        <v>3.15</v>
       </c>
       <c r="H12" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>12.85</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>6.75</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1172,27 +1172,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>7.88</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,22 +1207,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>7.95</v>
+        <v>5.95</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>17.96</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1242,22 +1242,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>4.3</v>
+        <v>3.98</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1">
         <v>4</v>
       </c>
       <c r="L16" s="2">
-        <v>7.64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1297,7 +1297,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,27 +1312,27 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>7.95</v>
+        <v>1.75</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="2">
-        <v>17.96</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>43998</v>
@@ -1347,27 +1347,27 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>1.75</v>
+        <v>3.35</v>
       </c>
       <c r="H19" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
       </c>
       <c r="L19" s="2">
-        <v>4.4</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>43998</v>
@@ -1382,27 +1382,27 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>1.55</v>
+        <v>7.95</v>
       </c>
       <c r="H20" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" s="2">
-        <v>4.65</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>43998</v>
@@ -1417,22 +1417,22 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" s="2">
-        <v>10.26</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1464,10 +1464,10 @@
         <v>87</v>
       </c>
       <c r="K22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2">
-        <v>12.18</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1502,12 +1502,12 @@
         <v>7</v>
       </c>
       <c r="L23" s="2">
-        <v>8.34</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>43998</v>
@@ -1522,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.99</v>
+        <v>2.1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I24" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" s="2">
-        <v>8.460000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1557,27 +1557,27 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="H25" s="2">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1">
         <v>8</v>
       </c>
       <c r="L25" s="2">
-        <v>13.8</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>43998</v>
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="H26" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" s="2">
-        <v>7.44</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1627,22 +1627,22 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K27" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" s="2">
-        <v>16.17</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1662,7 +1662,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="2">
-        <v>11.9</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L32" s="2">
-        <v>52.2</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L33" s="2">
-        <v>56.17</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="L35" s="5">
-        <v>413.5599999999999</v>
+        <v>443.11</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -76,12 +76,12 @@
     <t>Pantene® Shampoo Aqqa Light 400ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
@@ -175,10 +175,10 @@
     <t>8001090724984</t>
   </si>
   <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
     <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
   </si>
   <si>
     <t>4084500290600</t>
@@ -947,7 +947,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -962,27 +962,27 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H8" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>1.86</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -997,22 +997,22 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>4.39</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L35" s="5">
-        <v>443.11</v>
+        <v>444.04</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -1744,10 +1744,10 @@
         <v>89</v>
       </c>
       <c r="K30" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2">
-        <v>10.06</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1779,10 +1779,10 @@
         <v>88</v>
       </c>
       <c r="K31" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L31" s="2">
-        <v>19.87</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" s="2">
-        <v>54.81</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L35" s="5">
-        <v>444.04</v>
+        <v>449.71</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,69 +61,69 @@
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Classic 360ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
   </si>
   <si>
     <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
   </si>
   <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
     <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
+    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Powder 8τεμ.</t>
   </si>
   <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
+    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
+  </si>
+  <si>
+    <t>Colgate® Deep Clean Whitening 100ml</t>
   </si>
   <si>
     <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
   </si>
   <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
@@ -160,69 +160,69 @@
     <t>5201395137134</t>
   </si>
   <si>
+    <t>4084500290532</t>
+  </si>
+  <si>
+    <t>5201395133334</t>
+  </si>
+  <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
     <t>5201395136939</t>
   </si>
   <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
   </si>
   <si>
     <t>5208086416820</t>
   </si>
   <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
+    <t>4084500290242</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
   </si>
   <si>
     <t>8690530044494</t>
   </si>
   <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
     <t>5201395138339</t>
   </si>
   <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
     <t>5208086412464</t>
   </si>
   <si>
+    <t>5201395138438</t>
+  </si>
+  <si>
     <t>8690530044517</t>
   </si>
   <si>
-    <t>5201395138438</t>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>8714789115474</t>
   </si>
   <si>
     <t>5208086416387</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
     <t>5208086400034</t>
   </si>
   <si>
@@ -265,13 +265,13 @@
     <t>Bazaar</t>
   </si>
   <si>
+    <t>Kelloggs</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
     <t>Dixan</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
   </si>
   <si>
     <t>Farmer</t>
@@ -772,7 +772,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4">
         <v>43998</v>
@@ -787,22 +787,22 @@
         <v>48</v>
       </c>
       <c r="G3" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H3" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -939,15 +939,15 @@
         <v>81</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2">
-        <v>2.25</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -962,27 +962,27 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>4.39</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>43998</v>
@@ -997,22 +997,22 @@
         <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H9" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
         <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>2.79</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1047,12 +1047,12 @@
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>6.75</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1067,22 +1067,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>6.41</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1102,7 +1102,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1">
         <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>7.88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>7.95</v>
+        <v>3.98</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>17.96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1181,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,27 +1207,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>5.95</v>
+        <v>3.15</v>
       </c>
       <c r="H15" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>17.36</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1242,22 +1242,22 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>3.98</v>
+        <v>5.95</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>4</v>
       </c>
       <c r="L16" s="2">
-        <v>9</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1277,7 +1277,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2">
-        <v>9</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1347,7 +1347,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="2">
-        <v>3.35</v>
+        <v>7.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1356,13 +1356,13 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
       </c>
       <c r="L19" s="2">
-        <v>10.26</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1382,7 +1382,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="2">
-        <v>7.95</v>
+        <v>3.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>84</v>
       </c>
       <c r="K20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" s="2">
-        <v>22.45</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1417,27 +1417,27 @@
         <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>1.55</v>
+        <v>2.95</v>
       </c>
       <c r="H21" s="2">
-        <v>1.15</v>
+        <v>2.29</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L21" s="2">
-        <v>5.58</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>43998</v>
@@ -1452,27 +1452,27 @@
         <v>67</v>
       </c>
       <c r="G22" s="2">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="H22" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" s="2">
-        <v>14.21</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>43998</v>
@@ -1487,22 +1487,22 @@
         <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I23" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K23" s="1">
         <v>7</v>
       </c>
       <c r="L23" s="2">
-        <v>8.460000000000001</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1601,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" s="1">
         <v>9</v>
@@ -1779,10 +1779,10 @@
         <v>88</v>
       </c>
       <c r="K31" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L31" s="2">
-        <v>22.25</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L32" s="2">
-        <v>57.42</v>
+        <v>62.64</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L33" s="2">
-        <v>60.77</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1884,18 +1884,18 @@
         <v>92</v>
       </c>
       <c r="K34" s="1">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L34" s="2">
-        <v>54.96</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="L35" s="5">
-        <v>449.71</v>
+        <v>474.3099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -79,36 +79,36 @@
     <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
+  </si>
+  <si>
     <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
     <t>Pantene® Shampoo Colour Protect 360ml</t>
   </si>
   <si>
     <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
   </si>
   <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
+  </si>
+  <si>
+    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
+  </si>
+  <si>
     <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
@@ -124,24 +124,24 @@
     <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
   </si>
   <si>
+    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+  </si>
+  <si>
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
+    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
     <t>Selpak® Toilet Paper Levander 8τεμ.</t>
   </si>
   <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
+    <t>AVA PERLE 430ML CLASSIC</t>
   </si>
   <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
     <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
   </si>
   <si>
@@ -178,36 +178,36 @@
     <t>5201395136939</t>
   </si>
   <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>4084500290242</t>
+  </si>
+  <si>
     <t>4084500290600</t>
   </si>
   <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
     <t>4084500929951</t>
   </si>
   <si>
     <t>5053827215671</t>
   </si>
   <si>
+    <t>5201395137530</t>
+  </si>
+  <si>
+    <t>5201395138339</t>
+  </si>
+  <si>
+    <t>5208086412464</t>
+  </si>
+  <si>
     <t>8690530044494</t>
   </si>
   <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
     <t>5201395138438</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>5208086416387</t>
   </si>
   <si>
+    <t>5208086420353</t>
+  </si>
+  <si>
     <t>5208086400034</t>
   </si>
   <si>
-    <t>5208086420353</t>
+    <t>7891024132074</t>
   </si>
   <si>
     <t>8690530044500</t>
   </si>
   <si>
-    <t>7891024132074</t>
+    <t>5201314120902</t>
   </si>
   <si>
     <t>8850006324172</t>
   </si>
   <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
     <t>5201314120926</t>
   </si>
   <si>
@@ -268,15 +268,15 @@
     <t>Kelloggs</t>
   </si>
   <si>
+    <t>Dixan</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>Selpak</t>
   </si>
   <si>
-    <t>Dixan</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
     <t>Παπαγάλος</t>
   </si>
   <si>
@@ -289,7 +289,7 @@
     <t>Nutella</t>
   </si>
   <si>
-    <t>Tasty</t>
+    <t>Lays</t>
   </si>
   <si>
     <t>Royal Dutch</t>
@@ -1012,12 +1012,12 @@
         <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>6.75</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>43998</v>
@@ -1032,27 +1032,27 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>6.41</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>43998</v>
@@ -1067,22 +1067,22 @@
         <v>56</v>
       </c>
       <c r="G11" s="2">
-        <v>1.55</v>
+        <v>3.98</v>
       </c>
       <c r="H11" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="2">
-        <v>2.79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,27 +1207,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>3.15</v>
+        <v>5.95</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>7.88</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>43998</v>
@@ -1242,27 +1242,27 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>5.95</v>
+        <v>7.95</v>
       </c>
       <c r="H16" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2">
-        <v>17.36</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1277,13 +1277,13 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>7.95</v>
+        <v>1.75</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>85</v>
@@ -1292,12 +1292,12 @@
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <v>22.45</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,13 +1312,13 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>1.75</v>
+        <v>3.15</v>
       </c>
       <c r="H18" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>86</v>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="2">
-        <v>4.4</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1356,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -1391,13 +1391,13 @@
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" s="2">
-        <v>12.15</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1522,22 +1522,22 @@
         <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="H24" s="2">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1">
         <v>8</v>
       </c>
       <c r="L24" s="2">
-        <v>13.8</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1557,22 +1557,22 @@
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
-        <v>1.15</v>
+        <v>1.69</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L25" s="2">
-        <v>7.44</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K26" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L26" s="2">
-        <v>16.17</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1627,22 +1627,22 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="1">
         <v>10</v>
       </c>
       <c r="L27" s="2">
-        <v>11.9</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1662,22 +1662,22 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>2.99</v>
+        <v>1.2</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="2">
-        <v>11.96</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1697,22 +1697,22 @@
         <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>1.2</v>
+        <v>2.99</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="2">
-        <v>7.48</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L35" s="5">
-        <v>474.3099999999999</v>
+        <v>486.85</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="K19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19" s="2">
-        <v>22.45</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1569,10 +1569,10 @@
         <v>85</v>
       </c>
       <c r="K25" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" s="2">
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L35" s="5">
-        <v>486.85</v>
+        <v>492.84</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -64,40 +64,43 @@
     <t>Pantene® Shampoo Classic 360ml</t>
   </si>
   <si>
+    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Hydration 360ml</t>
+  </si>
+  <si>
     <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
+    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
+  </si>
+  <si>
+    <t>Pantene® Shampoo Colour Protect 360ml</t>
+  </si>
+  <si>
+    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
+  </si>
+  <si>
+    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
   </si>
   <si>
     <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
   </si>
   <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
+    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
   </si>
   <si>
     <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
@@ -106,9 +109,6 @@
     <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
     <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>Farmer® Φασόλια Γίγαντες 500gr</t>
   </si>
   <si>
+    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
+  </si>
+  <si>
+    <t>AVA PERLE 430ML CLASSIC</t>
+  </si>
+  <si>
     <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
     <t>Colgate® Max Fresh Cool Mint 100gr</t>
   </si>
   <si>
@@ -163,40 +163,43 @@
     <t>4084500290532</t>
   </si>
   <si>
+    <t>4084500290570</t>
+  </si>
+  <si>
+    <t>8001090724984</t>
+  </si>
+  <si>
+    <t>5201395136939</t>
+  </si>
+  <si>
+    <t>5208086416820</t>
+  </si>
+  <si>
+    <t>4015600948016</t>
+  </si>
+  <si>
+    <t>4084500929982</t>
+  </si>
+  <si>
     <t>5201395133334</t>
   </si>
   <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>5201395136939</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
+    <t>4084500290600</t>
+  </si>
+  <si>
+    <t>4084500929951</t>
+  </si>
+  <si>
+    <t>5053827215671</t>
+  </si>
+  <si>
+    <t>5201395137530</t>
   </si>
   <si>
     <t>4084500290242</t>
   </si>
   <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
+    <t>8690530044494</t>
   </si>
   <si>
     <t>5201395138339</t>
@@ -205,9 +208,6 @@
     <t>5208086412464</t>
   </si>
   <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
     <t>5201395138438</t>
   </si>
   <si>
@@ -229,15 +229,15 @@
     <t>5208086400034</t>
   </si>
   <si>
+    <t>8690530044500</t>
+  </si>
+  <si>
+    <t>5201314120902</t>
+  </si>
+  <si>
     <t>7891024132074</t>
   </si>
   <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
     <t>8850006324172</t>
   </si>
   <si>
@@ -268,13 +268,13 @@
     <t>Kelloggs</t>
   </si>
   <si>
+    <t>Selpak</t>
+  </si>
+  <si>
     <t>Dixan</t>
   </si>
   <si>
     <t>Farmer</t>
-  </si>
-  <si>
-    <t>Selpak</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>43998</v>
@@ -822,22 +822,22 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H4" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -877,7 +877,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>43998</v>
@@ -892,27 +892,27 @@
         <v>51</v>
       </c>
       <c r="G6" s="2">
-        <v>3.98</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2">
-        <v>2.25</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>43998</v>
@@ -927,27 +927,27 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>3.98</v>
+        <v>1.55</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
-        <v>4.39</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>43998</v>
@@ -962,22 +962,22 @@
         <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>8.949999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H8" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>9.02</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1032,22 +1032,22 @@
         <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>1.55</v>
+        <v>5.95</v>
       </c>
       <c r="H10" s="2">
-        <v>1.15</v>
+        <v>5.59</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>2.79</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1137,27 +1137,27 @@
         <v>58</v>
       </c>
       <c r="G13" s="2">
-        <v>3.98</v>
+        <v>4.3</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>9</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>43998</v>
@@ -1172,27 +1172,27 @@
         <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>4.3</v>
+        <v>5.95</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="I14" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>7.64</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>43998</v>
@@ -1207,22 +1207,22 @@
         <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>5.95</v>
+        <v>3.98</v>
       </c>
       <c r="H15" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>17.36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1242,7 +1242,7 @@
         <v>61</v>
       </c>
       <c r="G16" s="2">
-        <v>7.95</v>
+        <v>3.15</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1257,12 +1257,12 @@
         <v>5</v>
       </c>
       <c r="L16" s="2">
-        <v>22.45</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>43998</v>
@@ -1277,13 +1277,13 @@
         <v>62</v>
       </c>
       <c r="G17" s="2">
-        <v>1.75</v>
+        <v>7.95</v>
       </c>
       <c r="H17" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>85</v>
@@ -1292,12 +1292,12 @@
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <v>4.4</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>43998</v>
@@ -1312,22 +1312,22 @@
         <v>63</v>
       </c>
       <c r="G18" s="2">
-        <v>3.15</v>
+        <v>1.75</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" s="2">
-        <v>9.66</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1356,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1">
         <v>6</v>
@@ -1391,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1">
         <v>7</v>
@@ -1534,10 +1534,10 @@
         <v>82</v>
       </c>
       <c r="K24" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L24" s="2">
-        <v>7.44</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1">
         <v>10</v>
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K26" s="1">
         <v>10</v>
       </c>
       <c r="L26" s="2">
-        <v>11.9</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1627,7 +1627,7 @@
         <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>3.35</v>
+        <v>1.2</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="2">
-        <v>18.87</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1662,22 +1662,22 @@
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>1.2</v>
+        <v>2.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="2">
-        <v>7.48</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1709,10 +1709,10 @@
         <v>88</v>
       </c>
       <c r="K29" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2">
-        <v>14.38</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1814,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="K32" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L32" s="2">
-        <v>62.64</v>
+        <v>70.47</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1849,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="K33" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L33" s="2">
-        <v>63.07</v>
+        <v>65.37</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1892,10 +1892,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="K35" s="5">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="L35" s="5">
-        <v>492.84</v>
+        <v>520.49</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -52,247 +52,517 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πωλήσεις Έκπτωση 1</t>
+  </si>
+  <si>
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
-    <t>Πωλήσεις Έκπτωση 1</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>Farmer® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
+  </si>
+  <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
+    <t>Fairy® Ultra Apple 400ml</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
+  </si>
+  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
-  </si>
-  <si>
-    <t>5201395136939</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
+  </si>
+  <si>
+    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>8001090902238</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
+    <t>5201485000850</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
+    <t>8001090902276</t>
+  </si>
+  <si>
+    <t>5201004021755</t>
+  </si>
+  <si>
+    <t>5201024779957</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>5208086400034</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>5201314120926</t>
-  </si>
-  <si>
-    <t>6001067003366</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
-    <t>5201024779957</t>
-  </si>
-  <si>
-    <t>87250510</t>
-  </si>
-  <si>
-    <t>Neomat</t>
-  </si>
-  <si>
-    <t>Pantene</t>
-  </si>
-  <si>
-    <t>Bazaar</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>Selpak</t>
-  </si>
-  <si>
-    <t>Dixan</t>
-  </si>
-  <si>
-    <t>Farmer</t>
+    <t>5201004021502</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>Nivea</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Zewa</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Ηλιος</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Nutella</t>
+  </si>
+  <si>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
+    <t>Lays</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
   </si>
   <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Nutella</t>
-  </si>
-  <si>
-    <t>Lays</t>
-  </si>
-  <si>
-    <t>Royal Dutch</t>
+    <t>Νεκταρίνια</t>
   </si>
 </sst>
 </file>
@@ -677,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,139 +1010,139 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D2" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>8.949999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="H2" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>4.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D3" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>3.98</v>
+        <v>14.3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D4" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>3.98</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D5" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>3.98</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -880,34 +1150,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D6" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>8.949999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="H6" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>9.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -915,104 +1185,104 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D7" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>1.55</v>
+        <v>16.95</v>
       </c>
       <c r="H7" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>2.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D8" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>3.98</v>
+        <v>18.95</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>6.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D9" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>3.98</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>6.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1020,279 +1290,279 @@
         <v>12</v>
       </c>
       <c r="C10" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D10" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>5.95</v>
+        <v>17.3</v>
       </c>
       <c r="H10" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>13.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D11" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>3.98</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D12" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>3.98</v>
+        <v>19.9</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D13" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>4.3</v>
+        <v>18.99</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>7.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D14" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>5.95</v>
+        <v>2.1</v>
       </c>
       <c r="H14" s="2">
-        <v>5.59</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>17.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D15" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>3.98</v>
+        <v>8.9</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D16" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>3.15</v>
+        <v>16.65</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="K16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>9.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D17" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>7.95</v>
+        <v>17.85</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="K17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>22.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1300,104 +1570,104 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D18" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>1.75</v>
+        <v>18.45</v>
       </c>
       <c r="H18" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K18" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D19" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>7.95</v>
+        <v>14.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="K19" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>26.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D20" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>3.35</v>
+        <v>11.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="K20" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>14.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1405,69 +1675,69 @@
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D21" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>2.95</v>
+        <v>12.4</v>
       </c>
       <c r="H21" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="K21" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>14.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D22" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>2.99</v>
+        <v>16.8</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="K22" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>8.460000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1475,34 +1745,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D23" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>1.55</v>
+        <v>13.35</v>
       </c>
       <c r="H23" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="K23" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>6.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1510,34 +1780,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D24" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>1.55</v>
+        <v>10.7</v>
       </c>
       <c r="H24" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>8.369999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1545,139 +1815,139 @@
         <v>12</v>
       </c>
       <c r="C25" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D25" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>2.1</v>
+        <v>17.95</v>
       </c>
       <c r="H25" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>16.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D26" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>3.35</v>
+        <v>17.95</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="K26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>18.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D27" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
-        <v>1.2</v>
+        <v>15.5</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D28" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2">
-        <v>2.95</v>
+        <v>17.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="K28" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>14.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1685,54 +1955,54 @@
         <v>13</v>
       </c>
       <c r="C29" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D29" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2">
-        <v>2.99</v>
+        <v>2.1</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I29" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="K29" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>16.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D30" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>1.2</v>
+        <v>4.99</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1741,13 +2011,13 @@
         <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="K30" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>10.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1755,34 +2025,34 @@
         <v>13</v>
       </c>
       <c r="C31" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D31" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>2.95</v>
+        <v>1.69</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I31" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>24.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1790,34 +2060,34 @@
         <v>12</v>
       </c>
       <c r="C32" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D32" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>3.78</v>
+        <v>4.95</v>
       </c>
       <c r="H32" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>70.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1825,34 +2095,34 @@
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D33" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>1.7</v>
+        <v>16.2</v>
       </c>
       <c r="H33" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>65.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1860,46 +2130,1726 @@
         <v>12</v>
       </c>
       <c r="C34" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D34" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>20</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>30</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>30</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>20</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>30</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>30</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="2">
+        <v>10.45</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>20</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>20</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>30</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>30</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="2">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>20</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="2">
+        <v>10.15</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>30</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>30</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>30</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>30</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15.95</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>20</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" s="1">
+        <v>3</v>
+      </c>
+      <c r="L66" s="2">
+        <v>30.87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>20</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4</v>
+      </c>
+      <c r="L67" s="2">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" s="1">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>30</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="L69" s="2">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>30</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K70" s="1">
+        <v>7</v>
+      </c>
+      <c r="L70" s="2">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="2">
+      <c r="F71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>30</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" s="1">
+        <v>7</v>
+      </c>
+      <c r="L71" s="2">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>30</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K72" s="1">
+        <v>9</v>
+      </c>
+      <c r="L72" s="2">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10</v>
+      </c>
+      <c r="L73" s="2">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>30</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K74" s="1">
+        <v>11</v>
+      </c>
+      <c r="L74" s="2">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K75" s="1">
+        <v>12</v>
+      </c>
+      <c r="L75" s="2">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K76" s="1">
+        <v>14</v>
+      </c>
+      <c r="L76" s="2">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>50</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K77" s="1">
+        <v>16</v>
+      </c>
+      <c r="L77" s="2">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K78" s="1">
+        <v>17.665</v>
+      </c>
+      <c r="L78" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K79" s="1">
+        <v>22</v>
+      </c>
+      <c r="L79" s="2">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H80" s="2">
         <v>0.85</v>
       </c>
-      <c r="H34" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="1">
-        <v>120</v>
-      </c>
-      <c r="L34" s="2">
-        <v>57.84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="K35" s="5">
-        <v>395</v>
-      </c>
-      <c r="L35" s="5">
-        <v>520.49</v>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K80" s="1">
+        <v>30.995</v>
+      </c>
+      <c r="L80" s="2">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K81" s="1">
+        <v>45.161</v>
+      </c>
+      <c r="L81" s="2">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" s="1">
+        <v>66.265</v>
+      </c>
+      <c r="L82" s="2">
+        <v>49.16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="K83" s="5">
+        <v>322.086</v>
+      </c>
+      <c r="L83" s="5">
+        <v>577.9699999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I34">
+  <conditionalFormatting sqref="I1:I82">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1911,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J34">
+  <conditionalFormatting sqref="J1:J82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,195 +61,195 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
     <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
   </si>
   <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
@@ -283,210 +283,210 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
     <t>4005808407460</t>
   </si>
   <si>
     <t>4005808422999</t>
   </si>
   <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
     <t>4005808429882</t>
   </si>
   <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
   </si>
   <si>
     <t>8710447477847</t>
   </si>
   <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
   </si>
   <si>
     <t>4005808856695</t>
   </si>
   <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>8001841395883</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
+    <t>5201178035213</t>
   </si>
   <si>
     <t>0253</t>
   </si>
   <si>
-    <t>5201178035213</t>
+    <t>7613034152381</t>
   </si>
   <si>
     <t>5201020791540</t>
   </si>
   <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
     <t>7322540055337</t>
   </si>
   <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
     <t>8001090902238</t>
   </si>
   <si>
-    <t>8710847878404</t>
-  </si>
-  <si>
     <t>5201485000850</t>
   </si>
   <si>
@@ -514,12 +514,12 @@
     <t>Nivea</t>
   </si>
   <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
     <t>Ροδάκινο</t>
   </si>
   <si>
-    <t>PizBuin</t>
-  </si>
-  <si>
     <t>Dove</t>
   </si>
   <si>
@@ -529,22 +529,22 @@
     <t>Zewa</t>
   </si>
   <si>
+    <t>Soft</t>
+  </si>
+  <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Soft</t>
-  </si>
-  <si>
     <t>Fairy</t>
   </si>
   <si>
     <t>Βερύκοκα</t>
   </si>
   <si>
+    <t>Fitness</t>
+  </si>
+  <si>
     <t>Ηλιος</t>
-  </si>
-  <si>
-    <t>Fitness</t>
   </si>
   <si>
     <t>Elite</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>19.9</v>
+        <v>12.4</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>18.99</v>
+        <v>10.7</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>44013</v>
@@ -1442,16 +1442,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>2.1</v>
+        <v>19.9</v>
       </c>
       <c r="H14" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>8.9</v>
+        <v>17.95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>165</v>
@@ -1512,13 +1512,13 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>16.65</v>
+        <v>8.9</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>165</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>17.85</v>
+        <v>16.65</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>14.95</v>
+        <v>18.45</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>11.95</v>
+        <v>14.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>12.4</v>
+        <v>11.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>44013</v>
@@ -1827,16 +1827,16 @@
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>113</v>
       </c>
       <c r="G27" s="2">
-        <v>15.5</v>
+        <v>18.99</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G29" s="2">
         <v>2.1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>4.99</v>
+        <v>12.5</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>44013</v>
@@ -2037,16 +2037,16 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>1.69</v>
+        <v>9.9</v>
       </c>
       <c r="H31" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>4.95</v>
+        <v>4.99</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4">
         <v>44013</v>
@@ -2107,16 +2107,16 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>16.2</v>
+        <v>1.69</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I33" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2142,16 +2142,16 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>13.35</v>
+        <v>4.95</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>9.9</v>
+        <v>16.2</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2247,22 +2247,22 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>12.5</v>
+        <v>4.99</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,22 +2282,22 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>12.9</v>
+        <v>4.99</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2311,13 +2311,13 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>17.8</v>
+        <v>18.45</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>11.48</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2346,28 +2346,28 @@
         <v>44027</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>9.1</v>
+        <v>4.99</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>5.87</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2381,28 +2381,28 @@
         <v>44027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>8.19</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2416,13 +2416,13 @@
         <v>44027</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>3.3</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2451,28 +2451,28 @@
         <v>44027</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>4.99</v>
+        <v>9.1</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>3.3</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2486,13 +2486,13 @@
         <v>44027</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>3.3</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2521,13 +2521,13 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>18.45</v>
+        <v>17.8</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>11.9</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2597,22 +2597,22 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>3.3</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,22 +2632,22 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>6.72</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,22 +2667,22 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>4.47</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2737,7 +2737,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>12.2</v>
+        <v>17.85</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>7.87</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2772,7 +2772,7 @@
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>18.95</v>
+        <v>12.7</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>12.22</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,7 +2807,7 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>8.32</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,28 +2836,28 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>6.38</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>13.24</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2912,22 +2912,22 @@
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>13.35</v>
+        <v>4.99</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>17.24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2947,7 +2947,7 @@
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>4.99</v>
+        <v>1.35</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>30</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>6.6</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2982,22 +2982,22 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>9.800000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>12.64</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3017,7 +3017,7 @@
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>10.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="L59" s="2">
-        <v>13.1</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3052,7 +3052,7 @@
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>9.9</v>
+        <v>10.15</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="2">
-        <v>12.76</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3087,22 +3087,22 @@
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>1.35</v>
+        <v>9.9</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>1.85</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3134,10 +3134,10 @@
         <v>168</v>
       </c>
       <c r="K62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>6.6</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3169,10 +3169,10 @@
         <v>173</v>
       </c>
       <c r="K63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,27 +3192,27 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>8.01</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="4">
         <v>44013</v>
@@ -3227,27 +3227,27 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>1.95</v>
+        <v>15.95</v>
       </c>
       <c r="H65" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K65" s="1">
         <v>3</v>
       </c>
       <c r="L65" s="2">
-        <v>3.84</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,22 +3262,22 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>15.95</v>
+        <v>1.95</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K66" s="1">
         <v>3</v>
       </c>
       <c r="L66" s="2">
-        <v>30.87</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3297,13 +3297,13 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>1.78</v>
+        <v>3.65</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>175</v>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="2">
-        <v>4.6</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>3.65</v>
+        <v>1.78</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>176</v>
       </c>
       <c r="K68" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L68" s="2">
-        <v>10.01</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3379,10 +3379,10 @@
         <v>170</v>
       </c>
       <c r="K69" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L69" s="2">
-        <v>11.16</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3396,13 +3396,13 @@
         <v>44027</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>1.35</v>
+        <v>9.9</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K70" s="1">
         <v>7</v>
       </c>
       <c r="L70" s="2">
-        <v>5.32</v>
+        <v>38.29</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3431,13 +3431,13 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K71" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L71" s="2">
-        <v>38.29</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3554,10 +3554,10 @@
         <v>173</v>
       </c>
       <c r="K74" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L74" s="2">
-        <v>8.09</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L75" s="2">
-        <v>10.56</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L76" s="2">
-        <v>15.74</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G78" s="2">
         <v>1.95</v>
@@ -3694,10 +3694,10 @@
         <v>174</v>
       </c>
       <c r="K78" s="1">
-        <v>17.665</v>
+        <v>19.76</v>
       </c>
       <c r="L78" s="2">
-        <v>25.8</v>
+        <v>28.86</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3729,10 +3729,10 @@
         <v>179</v>
       </c>
       <c r="K79" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L79" s="2">
-        <v>19.36</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G80" s="2">
         <v>2.1</v>
@@ -3761,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K80" s="1">
-        <v>30.995</v>
+        <v>31.365</v>
       </c>
       <c r="L80" s="2">
-        <v>22.58</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>169</v>
       </c>
       <c r="K81" s="1">
-        <v>45.161</v>
+        <v>50.301</v>
       </c>
       <c r="L81" s="2">
-        <v>52.88</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3822,10 +3822,10 @@
         <v>164</v>
       </c>
       <c r="G82" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H82" s="2">
         <v>2.3</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0.85</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>66.265</v>
+        <v>75.925</v>
       </c>
       <c r="L82" s="2">
-        <v>49.16</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>322.086</v>
+        <v>357.351</v>
       </c>
       <c r="L83" s="5">
-        <v>577.9699999999999</v>
+        <v>661.5600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -91,126 +91,126 @@
     <t>PizBuin® Instant Glow Tube 50 150ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
     <t>PizBuin® After Sun Spray 200ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
   </si>
   <si>
     <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
@@ -241,18 +241,18 @@
     <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
@@ -265,15 +265,15 @@
     <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
     <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
-  </si>
-  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
@@ -313,121 +313,124 @@
     <t>3574661312491</t>
   </si>
   <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
     <t>3574661469294</t>
   </si>
   <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
     <t>3574661407692</t>
   </si>
   <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
+    <t>8710447477847</t>
   </si>
   <si>
     <t>3574661467153</t>
@@ -436,9 +439,6 @@
     <t>8003640011001</t>
   </si>
   <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
     <t>8712561899185</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>4005808478200</t>
   </si>
   <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
     <t>5201178035831</t>
   </si>
   <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
     <t>8001841395883</t>
   </si>
   <si>
@@ -469,18 +469,18 @@
     <t>5201178035213</t>
   </si>
   <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
     <t>0253</t>
   </si>
   <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
@@ -496,15 +496,15 @@
     <t>8001090902276</t>
   </si>
   <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
     <t>5201004021755</t>
   </si>
   <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
     <t>5201004021502</t>
   </si>
   <si>
@@ -538,28 +538,28 @@
     <t>Fairy</t>
   </si>
   <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Ηλιος</t>
+  </si>
+  <si>
     <t>Βερύκοκα</t>
   </si>
   <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Ηλιος</t>
-  </si>
-  <si>
     <t>Elite</t>
   </si>
   <si>
     <t>Nutella</t>
   </si>
   <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Papadopoulou</t>
   </si>
   <si>
     <t>Lays</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Νεκταρίνια</t>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>10.7</v>
+        <v>19.9</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>44013</v>
@@ -1442,16 +1442,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>19.9</v>
+        <v>2.1</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>16.65</v>
+        <v>17.85</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>17.85</v>
+        <v>18.45</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>18.45</v>
+        <v>14.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>14.95</v>
+        <v>11.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>11.95</v>
+        <v>16.8</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>16.8</v>
+        <v>13.35</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>13.35</v>
+        <v>12.9</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>12.9</v>
+        <v>17.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>44013</v>
@@ -1827,16 +1827,16 @@
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>2.1</v>
+        <v>16.2</v>
       </c>
       <c r="H25" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>17.95</v>
+        <v>18.99</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1891,22 +1891,22 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
-        <v>18.99</v>
+        <v>2.1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I27" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>17.95</v>
+        <v>4.99</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>44013</v>
@@ -1961,22 +1961,22 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>2.1</v>
+        <v>9.9</v>
       </c>
       <c r="H29" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>44013</v>
@@ -2002,16 +2002,16 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>12.5</v>
+        <v>1.69</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>44013</v>
@@ -2107,16 +2107,16 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>1.69</v>
+        <v>17.95</v>
       </c>
       <c r="H33" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2142,22 +2142,22 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>4.95</v>
+        <v>12.7</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2177,22 +2177,22 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>13.35</v>
+        <v>4.99</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2212,22 +2212,22 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>16.2</v>
+        <v>4.99</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2241,28 +2241,28 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>3.3</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2276,7 +2276,7 @@
         <v>44027</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
@@ -2311,28 +2311,28 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>18.45</v>
+        <v>4.99</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>11.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>4.99</v>
+        <v>16.65</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>3.3</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>3.3</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>6.72</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>9.1</v>
+        <v>17.8</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>5.87</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,22 +2492,22 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>9.9</v>
+        <v>14.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>4.47</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>17.8</v>
+        <v>9.9</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>11.48</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>14.95</v>
+        <v>12.9</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>9.65</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>6.38</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>12.9</v>
+        <v>17.85</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>8.32</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>12.2</v>
+        <v>10.45</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>7.87</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,7 +2702,7 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>10.45</v>
+        <v>12.5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>6.74</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,7 +2737,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>17.85</v>
+        <v>10.7</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>11.52</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2772,7 +2772,7 @@
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>12.7</v>
+        <v>9.1</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>8.19</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,22 +2807,22 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>17.24</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,28 +2836,28 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>11.9</v>
+        <v>13.35</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>13.24</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>11.18</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3087,22 +3087,22 @@
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>12.76</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3122,22 +3122,22 @@
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K62" s="1">
         <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>11.31</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,22 +3262,22 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="H66" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K66" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L66" s="2">
-        <v>3.84</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3297,22 +3297,22 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>3.65</v>
+        <v>1.78</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L67" s="2">
-        <v>10.01</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3332,27 +3332,27 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>1.78</v>
+        <v>4.95</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K68" s="1">
         <v>5</v>
       </c>
       <c r="L68" s="2">
-        <v>5.86</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4">
         <v>44013</v>
@@ -3367,22 +3367,22 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>4.95</v>
+        <v>1.95</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I69" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K69" s="1">
         <v>5</v>
       </c>
       <c r="L69" s="2">
-        <v>13.95</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3484,10 +3484,10 @@
         <v>177</v>
       </c>
       <c r="K72" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L72" s="2">
-        <v>10.89</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3519,10 +3519,10 @@
         <v>178</v>
       </c>
       <c r="K73" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L73" s="2">
-        <v>25.19</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3562,7 +3562,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,22 +3577,22 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>1.69</v>
+        <v>3.7</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L75" s="2">
-        <v>13.2</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3612,10 +3612,10 @@
         <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H76" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -3624,15 +3624,15 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L76" s="2">
-        <v>18.04</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" s="4">
         <v>44013</v>
@@ -3647,22 +3647,22 @@
         <v>162</v>
       </c>
       <c r="G77" s="2">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I77" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>181</v>
       </c>
       <c r="K77" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L77" s="2">
-        <v>27.06</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G78" s="2">
         <v>1.95</v>
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K78" s="1">
-        <v>19.76</v>
+        <v>20.225</v>
       </c>
       <c r="L78" s="2">
-        <v>28.86</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K79" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L79" s="2">
-        <v>21.12</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G80" s="2">
         <v>2.1</v>
@@ -3764,10 +3764,10 @@
         <v>167</v>
       </c>
       <c r="K80" s="1">
-        <v>31.365</v>
+        <v>32.1</v>
       </c>
       <c r="L80" s="2">
-        <v>22.86</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>169</v>
       </c>
       <c r="K81" s="1">
-        <v>50.301</v>
+        <v>55.331</v>
       </c>
       <c r="L81" s="2">
-        <v>58.45</v>
+        <v>64.02</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>75.925</v>
+        <v>82.045</v>
       </c>
       <c r="L82" s="2">
-        <v>60.37</v>
+        <v>72.83</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>357.351</v>
+        <v>386.701</v>
       </c>
       <c r="L83" s="5">
-        <v>661.5600000000001</v>
+        <v>728.0600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -88,189 +88,189 @@
     <t>Nivea® Sun Spray {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
     <t>PizBuin® Instant Glow Tube 50 150ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
   </si>
   <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
     <t>Nivea® After Sun Sensitive Gel 175ml</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
   </si>
   <si>
     <t>Dove® Ντους Silk 750ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
     <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
     <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
+    <t>Fairy® Ultra Apple 400ml</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Fairy® Ultra Apple 400ml</t>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
-    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
@@ -310,177 +310,177 @@
     <t>4005808804511</t>
   </si>
   <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
     <t>3574661312491</t>
   </si>
   <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
     <t>8712561899109</t>
   </si>
   <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
     <t>5201178037750</t>
   </si>
   <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
   </si>
   <si>
     <t>8712561626569</t>
   </si>
   <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
   </si>
   <si>
     <t>8712561898966</t>
   </si>
   <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8001841395883</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
     <t>7613034152381</t>
   </si>
   <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
     <t>5201020791540</t>
   </si>
   <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
@@ -490,18 +490,18 @@
     <t>5201485000850</t>
   </si>
   <si>
+    <t>8001090902276</t>
+  </si>
+  <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>8001090902276</t>
+    <t>5201004021755</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>5201004021755</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
@@ -541,22 +541,22 @@
     <t>Fitness</t>
   </si>
   <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
     <t>Ηλιος</t>
   </si>
   <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
     <t>Elite</t>
   </si>
   <si>
     <t>Nutella</t>
   </si>
   <si>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Papadopoulou</t>
   </si>
   <si>
     <t>Lays</t>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>12.4</v>
+        <v>17.95</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>19.9</v>
+        <v>16.8</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>16.8</v>
+        <v>13.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>13.35</v>
+        <v>12.9</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>12.9</v>
+        <v>19.9</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>17.95</v>
+        <v>16.2</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>16.2</v>
+        <v>18.99</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>18.99</v>
+        <v>12.4</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>44013</v>
@@ -1967,16 +1967,16 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>9.9</v>
+        <v>1.69</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I29" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>44013</v>
@@ -2002,16 +2002,16 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>1.69</v>
+        <v>4.95</v>
       </c>
       <c r="H30" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2072,16 +2072,16 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>4.95</v>
+        <v>17.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>17.95</v>
+        <v>12.7</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>165</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2142,22 +2142,22 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>8.19</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2171,28 +2171,28 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>3.3</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2206,7 +2206,7 @@
         <v>44027</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>121</v>
@@ -2241,28 +2241,28 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>18.45</v>
+        <v>4.99</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>11.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,22 +2282,22 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>4.99</v>
+        <v>16.65</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>3.3</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>3.3</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>16.65</v>
+        <v>9.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>10.74</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,22 +2387,22 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>6.72</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,22 +2422,22 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>9.9</v>
+        <v>14.95</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>4.47</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>17.8</v>
+        <v>12.9</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>11.48</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>14.95</v>
+        <v>9.9</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>9.65</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>6.38</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>12.9</v>
+        <v>17.85</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>8.32</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>7.87</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>17.85</v>
+        <v>10.45</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>11.52</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>10.45</v>
+        <v>9.9</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>6.74</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,7 +2702,7 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>12.5</v>
+        <v>9.1</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>8.06</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,7 +2737,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>10.7</v>
+        <v>17.8</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>6.9</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2766,28 +2766,28 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>5.87</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2801,28 +2801,28 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>11.18</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,28 +2836,28 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>17.24</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>11.9</v>
+        <v>4.99</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>13.24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2947,22 +2947,22 @@
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>1.35</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>1.85</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2982,22 +2982,22 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>4.99</v>
+        <v>10.15</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>6.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3017,22 +3017,22 @@
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>9.800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
       </c>
       <c r="L59" s="2">
-        <v>12.64</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3052,22 +3052,22 @@
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>10.15</v>
+        <v>4.99</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="2">
-        <v>13.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3087,22 +3087,22 @@
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1">
         <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>11.31</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3122,7 +3122,7 @@
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>9.9</v>
+        <v>15.95</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>19.14</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>1.35</v>
+        <v>9.9</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K63" s="1">
         <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>2.28</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>18.95</v>
+        <v>1.35</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>36.66</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,22 +3227,22 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>15.95</v>
+        <v>4.99</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K65" s="1">
         <v>3</v>
       </c>
       <c r="L65" s="2">
-        <v>30.87</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3282,7 +3282,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,13 +3297,13 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I67" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>175</v>
@@ -3312,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="L67" s="2">
-        <v>5.86</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4">
         <v>44013</v>
@@ -3367,22 +3367,22 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H69" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>176</v>
       </c>
       <c r="K69" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L69" s="2">
-        <v>6.4</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3431,7 +3431,7 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
@@ -3449,10 +3449,10 @@
         <v>173</v>
       </c>
       <c r="K71" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L71" s="2">
-        <v>6.08</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3484,15 +3484,15 @@
         <v>177</v>
       </c>
       <c r="K72" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L72" s="2">
-        <v>13.3</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4">
         <v>44013</v>
@@ -3507,27 +3507,27 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>3.78</v>
+        <v>1.35</v>
       </c>
       <c r="H73" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K73" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L73" s="2">
-        <v>27.8</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,27 +3542,27 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>1.35</v>
+        <v>3.78</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I74" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L74" s="2">
-        <v>8.85</v>
+        <v>35.63</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,27 +3577,27 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>3.7</v>
+        <v>1.69</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L75" s="2">
-        <v>27.06</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="4">
         <v>44013</v>
@@ -3612,22 +3612,22 @@
         <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>1.69</v>
+        <v>3.7</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L76" s="2">
-        <v>14.96</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3659,10 +3659,10 @@
         <v>181</v>
       </c>
       <c r="K77" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L77" s="2">
-        <v>20.34</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" s="2">
         <v>1.95</v>
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K78" s="1">
-        <v>20.225</v>
+        <v>22.65</v>
       </c>
       <c r="L78" s="2">
-        <v>29.54</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K79" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L79" s="2">
-        <v>24.64</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>167</v>
       </c>
       <c r="K80" s="1">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="L80" s="2">
-        <v>23.41</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>169</v>
       </c>
       <c r="K81" s="1">
-        <v>55.331</v>
+        <v>57.801</v>
       </c>
       <c r="L81" s="2">
-        <v>64.02</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>82.045</v>
+        <v>83.73</v>
       </c>
       <c r="L82" s="2">
-        <v>72.83</v>
+        <v>76.26000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>386.701</v>
+        <v>409.481</v>
       </c>
       <c r="L83" s="5">
-        <v>728.0600000000001</v>
+        <v>767.49</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -265,12 +265,12 @@
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
     <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>80135876</t>
   </si>
   <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
     <t>5201004021755</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>Nutella</t>
   </si>
   <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Papadopoulou</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Lays</t>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,27 +3577,27 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>1.69</v>
+        <v>3.7</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L75" s="2">
-        <v>14.96</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" s="4">
         <v>44013</v>
@@ -3612,22 +3612,22 @@
         <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>3.7</v>
+        <v>1.69</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L76" s="2">
-        <v>30.32</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K79" s="1">
         <v>30</v>
@@ -3799,10 +3799,10 @@
         <v>169</v>
       </c>
       <c r="K81" s="1">
-        <v>57.801</v>
+        <v>59.896</v>
       </c>
       <c r="L81" s="2">
-        <v>66.75</v>
+        <v>69.06</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>83.73</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>76.26000000000001</v>
+        <v>77.68000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>409.481</v>
+        <v>415.276</v>
       </c>
       <c r="L83" s="5">
-        <v>767.49</v>
+        <v>773.8600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -3484,10 +3484,10 @@
         <v>177</v>
       </c>
       <c r="K72" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" s="2">
-        <v>14.51</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3659,10 +3659,10 @@
         <v>181</v>
       </c>
       <c r="K77" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L77" s="2">
-        <v>22.64</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3842,10 +3842,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>415.276</v>
+        <v>417.276</v>
       </c>
       <c r="L83" s="5">
-        <v>773.8600000000001</v>
+        <v>776.22</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>84.43000000000001</v>
+        <v>86.33</v>
       </c>
       <c r="L82" s="2">
-        <v>77.68000000000001</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>417.276</v>
+        <v>419.176</v>
       </c>
       <c r="L83" s="5">
-        <v>776.22</v>
+        <v>780.0899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,6 +61,9 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
   </si>
   <si>
@@ -88,156 +91,153 @@
     <t>Nivea® Sun Spray {SPF20} 200ml</t>
   </si>
   <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
     <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
   </si>
   <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
     <t>PizBuin® Instant Glow Tube 50 150ml</t>
   </si>
   <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
     <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
     <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
     <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
     <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
   </si>
   <si>
     <t>Nivea® After Sun Sensitive Gel 175ml</t>
   </si>
   <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
     <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
@@ -256,15 +256,15 @@
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
+    <t>Fairy® Ultra Apple 400ml</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
     <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
-    <t>Fairy® Ultra Apple 400ml</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
@@ -283,6 +283,9 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
     <t>5201178033011</t>
   </si>
   <si>
@@ -310,162 +313,159 @@
     <t>4005808804511</t>
   </si>
   <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
     <t>5201178033257</t>
   </si>
   <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
     <t>3574661181417</t>
   </si>
   <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
     <t>3574661312491</t>
   </si>
   <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
     <t>8712561899109</t>
   </si>
   <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
   </si>
   <si>
     <t>4005808445417</t>
   </si>
   <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
   </si>
   <si>
     <t>3574661469294</t>
   </si>
   <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
   </si>
   <si>
     <t>3574661192833</t>
   </si>
   <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
   </si>
   <si>
     <t>5201178037750</t>
   </si>
   <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
   </si>
   <si>
     <t>8710447477847</t>
   </si>
   <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8001841395883</t>
-  </si>
-  <si>
     <t>8712561898966</t>
   </si>
   <si>
@@ -487,15 +487,15 @@
     <t>8001090902238</t>
   </si>
   <si>
+    <t>8001090902276</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
     <t>5201485000850</t>
   </si>
   <si>
-    <t>8001090902276</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
@@ -520,15 +520,15 @@
     <t>Ροδάκινο</t>
   </si>
   <si>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Zewa</t>
+  </si>
+  <si>
     <t>Dove</t>
   </si>
   <si>
-    <t>Μπανάνες</t>
-  </si>
-  <si>
-    <t>Zewa</t>
-  </si>
-  <si>
     <t>Soft</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>Ηλιος</t>
   </si>
   <si>
+    <t>Nutella</t>
+  </si>
+  <si>
     <t>Elite</t>
-  </si>
-  <si>
-    <t>Nutella</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>18.99</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>16.95</v>
+        <v>17.3</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>18.95</v>
+        <v>16.95</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>18.95</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>16.8</v>
+        <v>12.9</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>44013</v>
@@ -1442,16 +1442,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>2.1</v>
+        <v>19.9</v>
       </c>
       <c r="H14" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>44013</v>
@@ -1477,16 +1477,16 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I15" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>8.9</v>
+        <v>17.95</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>165</v>
@@ -1547,13 +1547,13 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>17.85</v>
+        <v>8.9</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>165</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>14.95</v>
+        <v>18.45</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>11.95</v>
+        <v>14.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>13.35</v>
+        <v>11.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>12.9</v>
+        <v>16.2</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>19.9</v>
+        <v>17.95</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>16.2</v>
+        <v>17.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>18.99</v>
+        <v>13.35</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>12.4</v>
+        <v>16.8</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2">
         <v>2.1</v>
@@ -1932,16 +1932,16 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>4.99</v>
+        <v>12.4</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2072,22 +2072,22 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>17.95</v>
+        <v>4.99</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2101,13 +2101,13 @@
         <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>12.7</v>
+        <v>18.45</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>8.19</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2136,7 +2136,7 @@
         <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>119</v>
@@ -2151,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -2171,13 +2171,13 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>18.45</v>
+        <v>16.65</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>11.9</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2221,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
@@ -2282,22 +2282,22 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>16.65</v>
+        <v>11.9</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>10.74</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>6.72</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>4.47</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>6.9</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>12.9</v>
+        <v>17.85</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>8.32</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>7.87</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>17.85</v>
+        <v>10.45</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>11.52</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>12.5</v>
+        <v>9.1</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>8.06</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>10.45</v>
+        <v>17.8</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>6.74</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>6.38</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2696,28 +2696,28 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="2">
-        <v>5.87</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2731,13 +2731,13 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>17.8</v>
+        <v>13.35</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="2">
-        <v>11.48</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2766,28 +2766,28 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>13.24</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,22 +2807,22 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>13.35</v>
+        <v>4.99</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>17.24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2842,7 +2842,7 @@
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>11.18</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2877,22 +2877,22 @@
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>4.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>6.6</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2912,22 +2912,22 @@
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>6.6</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2947,7 +2947,7 @@
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>9.800000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>12.64</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2982,22 +2982,22 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>10.15</v>
+        <v>4.99</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>13.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3052,22 +3052,22 @@
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="2">
-        <v>6.6</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3087,7 +3087,7 @@
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>18.95</v>
+        <v>15.95</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>36.66</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3122,7 +3122,7 @@
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>15.95</v>
+        <v>9.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>30.87</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K63" s="1">
         <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>19.14</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,7 +3192,7 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>1.35</v>
+        <v>9.9</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>2.28</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3236,7 +3236,7 @@
         <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K65" s="1">
         <v>3</v>
@@ -3341,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K68" s="1">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
@@ -3449,10 +3449,10 @@
         <v>173</v>
       </c>
       <c r="K71" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L71" s="2">
-        <v>7.6</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3472,7 +3472,7 @@
         <v>157</v>
       </c>
       <c r="G72" s="2">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3481,18 +3481,18 @@
         <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K72" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L72" s="2">
-        <v>15.72</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4">
         <v>44013</v>
@@ -3507,27 +3507,27 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>1.35</v>
+        <v>3.78</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I73" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L73" s="2">
-        <v>9.609999999999999</v>
+        <v>35.63</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,22 +3542,22 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>3.78</v>
+        <v>1.95</v>
       </c>
       <c r="H74" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L74" s="2">
-        <v>35.63</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L75" s="2">
-        <v>30.32</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L76" s="2">
-        <v>17.6</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,28 +3641,28 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G77" s="2">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H77" s="2">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K77" s="1">
-        <v>21</v>
+        <v>24.845</v>
       </c>
       <c r="L77" s="2">
-        <v>23.79</v>
+        <v>36.29</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,28 +3676,28 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G78" s="2">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H78" s="2">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>22.65</v>
+        <v>26</v>
       </c>
       <c r="L78" s="2">
-        <v>33.08</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,28 +3711,28 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K79" s="1">
-        <v>30</v>
+        <v>32.83</v>
       </c>
       <c r="L79" s="2">
-        <v>26.4</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,28 +3746,28 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G80" s="2">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="H80" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K80" s="1">
-        <v>32.3</v>
+        <v>35</v>
       </c>
       <c r="L80" s="2">
-        <v>23.56</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>59.896</v>
+        <v>71.096</v>
       </c>
       <c r="L81" s="2">
-        <v>69.06</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>86.33</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>81.55</v>
+        <v>90.13</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>419.176</v>
+        <v>460.311</v>
       </c>
       <c r="L83" s="5">
-        <v>780.0899999999999</v>
+        <v>846.92</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,6 +61,9 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
   </si>
   <si>
@@ -82,174 +85,171 @@
     <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
   </si>
   <si>
     <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
   </si>
   <si>
     <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
   </si>
   <si>
     <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
     <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
   </si>
   <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
   </si>
   <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
   </si>
   <si>
     <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
@@ -259,21 +259,21 @@
     <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
     <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
-    <t>Tasty® Lays Αλάτι 150gr</t>
-  </si>
-  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
@@ -283,6 +283,9 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
     <t>4005808593637</t>
   </si>
   <si>
@@ -304,207 +307,204 @@
     <t>5201178033226</t>
   </si>
   <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
     <t>4005808432349</t>
   </si>
   <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
     <t>4005808433292</t>
   </si>
   <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
   </si>
   <si>
     <t>5201178026785</t>
   </si>
   <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
   </si>
   <si>
     <t>5201178033257</t>
   </si>
   <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
   </si>
   <si>
     <t>4005808751259</t>
   </si>
   <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
   </si>
   <si>
     <t>8712561899246</t>
   </si>
   <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
     <t>4005808441624</t>
   </si>
   <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
     <t>4005808856695</t>
   </si>
   <si>
     <t>5201178035213</t>
   </si>
   <si>
-    <t>5201178035831</t>
+    <t>7613034152381</t>
   </si>
   <si>
     <t>8001841395883</t>
   </si>
   <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>7613034152381</t>
+    <t>7322540055337</t>
   </si>
   <si>
     <t>0253</t>
   </si>
   <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
     <t>5201020791540</t>
   </si>
   <si>
     <t>8710847878404</t>
   </si>
   <si>
+    <t>8001090902276</t>
+  </si>
+  <si>
     <t>8001090902238</t>
   </si>
   <si>
-    <t>8001090902276</t>
+    <t>5201485000850</t>
   </si>
   <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5201485000850</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
+    <t>5201024779957</t>
+  </si>
+  <si>
     <t>5201004021755</t>
   </si>
   <si>
-    <t>5201024779957</t>
-  </si>
-  <si>
     <t>5201004021502</t>
   </si>
   <si>
@@ -529,12 +529,12 @@
     <t>Dove</t>
   </si>
   <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>Soft</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
     <t>Fairy</t>
   </si>
   <si>
@@ -547,19 +547,19 @@
     <t>Ηλιος</t>
   </si>
   <si>
+    <t>Elite</t>
+  </si>
+  <si>
     <t>Nutella</t>
   </si>
   <si>
-    <t>Elite</t>
-  </si>
-  <si>
     <t>Παπαγάλος</t>
   </si>
   <si>
+    <t>Lays</t>
+  </si>
+  <si>
     <t>Papadopoulou</t>
-  </si>
-  <si>
-    <t>Lays</t>
   </si>
   <si>
     <t>Νεκταρίνια</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>18.99</v>
+        <v>11.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>18.99</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>16.95</v>
+        <v>17.3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>18.95</v>
+        <v>16.95</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>15.5</v>
+        <v>18.95</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>17.3</v>
+        <v>17.95</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>12.9</v>
+        <v>15.5</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>19.9</v>
+        <v>12.9</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>44013</v>
@@ -1477,16 +1477,16 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>2.1</v>
+        <v>19.9</v>
       </c>
       <c r="H15" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>44013</v>
@@ -1512,16 +1512,16 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I16" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>11.95</v>
+        <v>17.3</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>16.2</v>
+        <v>13.35</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>17.95</v>
+        <v>16.2</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>44013</v>
@@ -1786,22 +1786,22 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I24" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>13.35</v>
+        <v>12.4</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1856,22 +1856,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
-        <v>16.8</v>
+        <v>1.69</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1891,22 +1891,22 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>2.1</v>
+        <v>13.35</v>
       </c>
       <c r="H27" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>12.4</v>
+        <v>4.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>44013</v>
@@ -1967,16 +1967,16 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>1.69</v>
+        <v>16.8</v>
       </c>
       <c r="H29" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>4.95</v>
+        <v>12.7</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>13.35</v>
+        <v>9.1</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>166</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2101,28 +2101,28 @@
         <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>18.45</v>
+        <v>4.99</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>11.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2136,28 +2136,28 @@
         <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>4.99</v>
+        <v>16.65</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>3.3</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2171,13 +2171,13 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>16.65</v>
+        <v>17.95</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>10.74</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2206,7 +2206,7 @@
         <v>44027</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>121</v>
@@ -2241,7 +2241,7 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>122</v>
@@ -2276,28 +2276,28 @@
         <v>44027</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>11.9</v>
+        <v>17.8</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>6.72</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2311,28 +2311,28 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>4.47</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2346,28 +2346,28 @@
         <v>44027</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>12.7</v>
+        <v>9.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>8.19</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2381,7 +2381,7 @@
         <v>44027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>126</v>
@@ -2416,13 +2416,13 @@
         <v>44027</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>14.95</v>
+        <v>17.85</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>9.65</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2451,13 +2451,13 @@
         <v>44027</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>17.85</v>
+        <v>14.95</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>11.52</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2486,7 +2486,7 @@
         <v>44027</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>129</v>
@@ -2521,13 +2521,13 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>12.5</v>
+        <v>17.95</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>8.06</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2556,7 +2556,7 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>131</v>
@@ -2591,28 +2591,28 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>5.87</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2626,13 +2626,13 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>17.8</v>
+        <v>13.35</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>11.48</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2661,13 +2661,13 @@
         <v>44027</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>166</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="2">
-        <v>6.9</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2696,28 +2696,28 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
       </c>
       <c r="L50" s="2">
-        <v>13.24</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2731,28 +2731,28 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>13.35</v>
+        <v>11.9</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="2">
-        <v>17.24</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2766,28 +2766,28 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>12.2</v>
+        <v>4.99</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>15.74</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2801,7 +2801,7 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>138</v>
@@ -2836,28 +2836,28 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>6.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2877,22 +2877,22 @@
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>9.800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>12.64</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2982,7 +2982,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>30</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" s="2">
-        <v>6.6</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3017,7 +3017,7 @@
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>1.35</v>
+        <v>4.99</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>30</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" s="2">
-        <v>1.85</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3052,7 +3052,7 @@
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>18.95</v>
+        <v>9.9</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="2">
-        <v>36.66</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3087,22 +3087,22 @@
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>15.95</v>
+        <v>4.99</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K61" s="1">
         <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>30.87</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3122,7 +3122,7 @@
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>19.14</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>1.35</v>
+        <v>18.95</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K63" s="1">
         <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>2.28</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>9.9</v>
+        <v>15.95</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>16.77</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,7 +3227,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>4.99</v>
+        <v>3.65</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L65" s="2">
-        <v>11.31</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3262,7 +3262,7 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>3.65</v>
+        <v>1.35</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3271,18 +3271,18 @@
         <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K66" s="1">
         <v>4</v>
       </c>
       <c r="L66" s="2">
-        <v>10.01</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,27 +3297,27 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>1.95</v>
+        <v>4.95</v>
       </c>
       <c r="H67" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K67" s="1">
         <v>5</v>
       </c>
       <c r="L67" s="2">
-        <v>6.4</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>4.95</v>
+        <v>1.95</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I68" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K68" s="1">
         <v>5</v>
       </c>
       <c r="L68" s="2">
-        <v>13.95</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K70" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L70" s="2">
-        <v>38.29</v>
+        <v>43.88</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3431,7 +3431,7 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
@@ -3449,10 +3449,10 @@
         <v>173</v>
       </c>
       <c r="K71" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L71" s="2">
-        <v>9.119999999999999</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3466,7 +3466,7 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
@@ -3487,12 +3487,12 @@
         <v>14</v>
       </c>
       <c r="L72" s="2">
-        <v>10.37</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4">
         <v>44013</v>
@@ -3507,27 +3507,27 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>3.78</v>
+        <v>1.95</v>
       </c>
       <c r="H73" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L73" s="2">
-        <v>35.63</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,22 +3542,22 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>1.95</v>
+        <v>3.78</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I74" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L74" s="2">
-        <v>18.14</v>
+        <v>43.46</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L75" s="2">
-        <v>31.95</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3606,28 +3606,28 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G76" s="2">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K76" s="1">
-        <v>23</v>
+        <v>28.875</v>
       </c>
       <c r="L76" s="2">
-        <v>20.24</v>
+        <v>42.18</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,28 +3641,28 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G77" s="2">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H77" s="2">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K77" s="1">
-        <v>24.845</v>
+        <v>29</v>
       </c>
       <c r="L77" s="2">
-        <v>36.29</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3682,10 +3682,10 @@
         <v>162</v>
       </c>
       <c r="G78" s="2">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H78" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -3694,10 +3694,10 @@
         <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L78" s="2">
-        <v>29.54</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,10 +3711,10 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G79" s="2">
         <v>2.1</v>
@@ -3729,10 +3729,10 @@
         <v>167</v>
       </c>
       <c r="K79" s="1">
-        <v>32.83</v>
+        <v>35.805</v>
       </c>
       <c r="L79" s="2">
-        <v>23.96</v>
+        <v>26.19</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3761,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L80" s="2">
-        <v>30.8</v>
+        <v>36.96</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>71.096</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>81.44</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>90.54000000000001</v>
+        <v>92.265</v>
       </c>
       <c r="L82" s="2">
-        <v>90.13</v>
+        <v>93.28</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>460.311</v>
+        <v>507.375</v>
       </c>
       <c r="L83" s="5">
-        <v>846.92</v>
+        <v>955.3199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,135 +61,135 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
     <t>PizBuin® Instant Glow Tube 50 150ml</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
   </si>
   <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
     <t>PizBuin® After Sun Spray 200ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
     <t>Dove® Ντους Restore 750ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
   </si>
   <si>
     <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
     <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
     <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
   </si>
   <si>
@@ -205,39 +205,39 @@
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
     <t>Dove® Ντους Silk 750ml</t>
   </si>
   <si>
     <t>Fairy® Ultra Ροδι 400ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
   </si>
   <si>
     <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
     <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
@@ -283,135 +283,135 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
     <t>5201178026686</t>
   </si>
   <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
     <t>3574661312491</t>
   </si>
   <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
   </si>
   <si>
     <t>4005808445417</t>
   </si>
   <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
     <t>3574661407692</t>
   </si>
   <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
+    <t>4005808854028</t>
   </si>
   <si>
     <t>8712561594424</t>
   </si>
   <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
   </si>
   <si>
     <t>8710522449325</t>
   </si>
   <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
     <t>3574661192857</t>
   </si>
   <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
     <t>8003640011506</t>
   </si>
   <si>
@@ -424,48 +424,48 @@
     <t>3574661464985</t>
   </si>
   <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
     <t>8003640011001</t>
   </si>
   <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
     <t>8712561898966</t>
   </si>
   <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
     <t>7613034152381</t>
   </si>
   <si>
@@ -514,10 +514,10 @@
     <t>Nivea</t>
   </si>
   <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>PizBuin</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
   </si>
   <si>
     <t>Μπανάνες</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>11.95</v>
+        <v>17.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>18.99</v>
+        <v>14.95</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>18.99</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>16.95</v>
+        <v>17.3</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>18.95</v>
+        <v>16.95</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>17.95</v>
+        <v>18.95</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>12.9</v>
+        <v>15.5</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>14.95</v>
+        <v>12.9</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>17.3</v>
+        <v>13.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>13.35</v>
+        <v>16.2</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>44013</v>
@@ -1827,16 +1827,16 @@
         <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>12.4</v>
+        <v>1.69</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1862,16 +1862,16 @@
         <v>111</v>
       </c>
       <c r="G26" s="2">
-        <v>1.69</v>
+        <v>4.95</v>
       </c>
       <c r="H26" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>4.95</v>
+        <v>11.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>16.8</v>
+        <v>12.4</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>12.7</v>
+        <v>14.95</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>8.19</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>5.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2072,22 +2072,22 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>4.99</v>
+        <v>12.7</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>3.3</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2177,22 +2177,22 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>17.95</v>
+        <v>4.99</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>14.48</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2212,22 +2212,22 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>4.99</v>
+        <v>17.95</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>3.3</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>17.8</v>
+        <v>9.1</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2291,13 +2291,13 @@
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>11.48</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>10.7</v>
+        <v>17.8</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>6.9</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,7 +2352,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>4.47</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>8.32</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>17.85</v>
+        <v>10.45</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>11.52</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,22 +2457,22 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>14.95</v>
+        <v>9.9</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>9.65</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>9.9</v>
+        <v>17.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>6.38</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>17.95</v>
+        <v>17.85</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>11.58</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>10.45</v>
+        <v>12.9</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>6.74</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2641,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -2676,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
@@ -2731,13 +2731,13 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>11.9</v>
+        <v>4.99</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="2">
-        <v>13.24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2766,28 +2766,28 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>6.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,22 +2807,22 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>6.6</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,13 +2836,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>18.45</v>
+        <v>10.15</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>23.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>1.35</v>
+        <v>4.99</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>1.85</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2906,28 +2906,28 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>12.76</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,28 +2941,28 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2">
-        <v>13.1</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,13 +2976,13 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>30</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K58" s="1">
         <v>3</v>
       </c>
       <c r="L58" s="2">
-        <v>16.77</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,28 +3011,28 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K59" s="1">
         <v>3</v>
       </c>
       <c r="L59" s="2">
-        <v>9.9</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3046,13 +3046,13 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="2">
-        <v>19.14</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,28 +3081,28 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>4.99</v>
+        <v>15.95</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1">
         <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>11.31</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3116,13 +3116,13 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="2">
-        <v>18.96</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3151,28 +3151,28 @@
         <v>44027</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>18.95</v>
+        <v>11.9</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K63" s="1">
         <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>36.66</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>15.95</v>
+        <v>4.99</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>30.87</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3344,10 +3344,10 @@
         <v>175</v>
       </c>
       <c r="K68" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L68" s="2">
-        <v>6.4</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3519,10 +3519,10 @@
         <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L73" s="2">
-        <v>18.14</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3554,10 +3554,10 @@
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L74" s="2">
-        <v>43.46</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L75" s="2">
-        <v>35.22</v>
+        <v>38.48</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3606,28 +3606,28 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H76" s="2">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>28.875</v>
+        <v>29</v>
       </c>
       <c r="L76" s="2">
-        <v>42.18</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,28 +3641,28 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G77" s="2">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H77" s="2">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K77" s="1">
-        <v>29</v>
+        <v>29.525</v>
       </c>
       <c r="L77" s="2">
-        <v>32.99</v>
+        <v>43.13</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3694,10 +3694,10 @@
         <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L78" s="2">
-        <v>27.24</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K79" s="1">
-        <v>35.805</v>
+        <v>36.325</v>
       </c>
       <c r="L79" s="2">
-        <v>26.19</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L80" s="2">
-        <v>36.96</v>
+        <v>40.48</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>76.43000000000001</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>87.34999999999999</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>92.265</v>
+        <v>94.565</v>
       </c>
       <c r="L82" s="2">
-        <v>93.28</v>
+        <v>97.95999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>507.375</v>
+        <v>526.845</v>
       </c>
       <c r="L83" s="5">
-        <v>955.3199999999999</v>
+        <v>985.6700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -238,21 +238,21 @@
     <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
@@ -466,21 +466,21 @@
     <t>8712561898966</t>
   </si>
   <si>
+    <t>8001841395883</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
     <t>7613034152381</t>
   </si>
   <si>
-    <t>8001841395883</t>
+    <t>5201020791540</t>
   </si>
   <si>
     <t>7322540055337</t>
   </si>
   <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
@@ -538,10 +538,10 @@
     <t>Fairy</t>
   </si>
   <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
     <t>Fitness</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
   </si>
   <si>
     <t>Ηλιος</t>
@@ -3227,7 +3227,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>3.65</v>
+        <v>1.35</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3236,18 +3236,18 @@
         <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K65" s="1">
         <v>4</v>
       </c>
       <c r="L65" s="2">
-        <v>10.01</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,22 +3262,22 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I66" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K66" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L66" s="2">
-        <v>3.04</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3297,7 +3297,7 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>4.95</v>
+        <v>3.65</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3306,18 +3306,18 @@
         <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L67" s="2">
-        <v>13.95</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H68" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K68" s="1">
         <v>6</v>
       </c>
       <c r="L68" s="2">
-        <v>7.68</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3367,22 +3367,22 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>1.78</v>
+        <v>4.95</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K69" s="1">
         <v>6</v>
       </c>
       <c r="L69" s="2">
-        <v>7.12</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3466,7 +3466,7 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
@@ -3519,10 +3519,10 @@
         <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L73" s="2">
-        <v>19.35</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3554,10 +3554,10 @@
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L74" s="2">
-        <v>46.07</v>
+        <v>48.68</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3641,10 +3641,10 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G77" s="2">
         <v>1.95</v>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K77" s="1">
-        <v>29.525</v>
+        <v>31.045</v>
       </c>
       <c r="L77" s="2">
-        <v>43.13</v>
+        <v>45.35</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3694,10 +3694,10 @@
         <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L78" s="2">
-        <v>30.76</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3729,10 +3729,10 @@
         <v>166</v>
       </c>
       <c r="K79" s="1">
-        <v>36.325</v>
+        <v>42.23</v>
       </c>
       <c r="L79" s="2">
-        <v>26.58</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L80" s="2">
-        <v>40.48</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>78.43000000000001</v>
+        <v>87.28</v>
       </c>
       <c r="L81" s="2">
-        <v>89.56</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3825,7 +3825,7 @@
         <v>2.1</v>
       </c>
       <c r="H82" s="2">
-        <v>2.3</v>
+        <v>0.85</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>94.565</v>
+        <v>95.435</v>
       </c>
       <c r="L82" s="2">
-        <v>97.95999999999999</v>
+        <v>99.73</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>526.845</v>
+        <v>556.99</v>
       </c>
       <c r="L83" s="5">
-        <v>985.6700000000001</v>
+        <v>1022.07</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,198 +61,198 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
     <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
     <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
   </si>
   <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
     <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
   </si>
   <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
     <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
     <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
   </si>
   <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
   </si>
   <si>
     <t>PizBuin® After Sun Spray 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
   </si>
   <si>
     <t>Nivea® After Sun Lotion In Shower 250ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
   </si>
   <si>
     <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
     <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
   </si>
   <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
     <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
@@ -283,204 +283,204 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
     <t>5201178035138</t>
   </si>
   <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
     <t>5201178033011</t>
   </si>
   <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
     <t>3574661492124</t>
   </si>
   <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
     <t>0201</t>
   </si>
   <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
     <t>9011111035721</t>
   </si>
   <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
   </si>
   <si>
     <t>5201178035244</t>
   </si>
   <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
+    <t>5201178035923</t>
   </si>
   <si>
     <t>3574661407692</t>
   </si>
   <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
     <t>4005808854028</t>
   </si>
   <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
+    <t>5201178037750</t>
   </si>
   <si>
     <t>5201178022862</t>
   </si>
   <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
   </si>
   <si>
     <t>3574661467153</t>
   </si>
   <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
     <t>3574661192833</t>
   </si>
   <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
     <t>8712561899185</t>
   </si>
   <si>
     <t>4005808751259</t>
   </si>
   <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
   </si>
   <si>
     <t>8712561899246</t>
   </si>
   <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
     <t>8001841395883</t>
   </si>
   <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
     <t>0253</t>
   </si>
   <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
     <t>5201020791540</t>
   </si>
   <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
@@ -523,25 +523,25 @@
     <t>Μπανάνες</t>
   </si>
   <si>
+    <t>Dove</t>
+  </si>
+  <si>
     <t>Zewa</t>
   </si>
   <si>
-    <t>Dove</t>
+    <t>Soft</t>
   </si>
   <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Soft</t>
-  </si>
-  <si>
     <t>Fairy</t>
   </si>
   <si>
+    <t>Fitness</t>
+  </si>
+  <si>
     <t>Βερύκοκα</t>
-  </si>
-  <si>
-    <t>Fitness</t>
   </si>
   <si>
     <t>Ηλιος</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>17.95</v>
+        <v>18.99</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>14.95</v>
+        <v>14.3</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>18.99</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>14.3</v>
+        <v>16.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>18.95</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>16.95</v>
+        <v>17.3</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>18.95</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>15.5</v>
+        <v>19.9</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>44013</v>
@@ -1407,16 +1407,16 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>17.3</v>
+        <v>2.1</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1442,13 +1442,13 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>15.5</v>
+        <v>8.9</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>165</v>
@@ -1477,7 +1477,7 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>19.9</v>
+        <v>17.85</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>44013</v>
@@ -1512,16 +1512,16 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>2.1</v>
+        <v>18.45</v>
       </c>
       <c r="H16" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>8.9</v>
+        <v>14.95</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>165</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>17.85</v>
+        <v>11.95</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>18.45</v>
+        <v>12.4</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>12.9</v>
+        <v>16.8</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>16.8</v>
+        <v>17.95</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>44013</v>
@@ -1786,22 +1786,22 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>2.1</v>
+        <v>15.5</v>
       </c>
       <c r="H24" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>44013</v>
@@ -1821,22 +1821,22 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>1.69</v>
+        <v>12.9</v>
       </c>
       <c r="H25" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1856,22 +1856,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G26" s="2">
-        <v>4.95</v>
+        <v>2.1</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1897,16 +1897,16 @@
         <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>13.35</v>
+        <v>1.69</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I27" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>11.95</v>
+        <v>13.35</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>12.4</v>
+        <v>10.7</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>167</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2002,22 +2002,22 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>14.95</v>
+        <v>4.99</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>9.65</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2037,22 +2037,22 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>10.7</v>
+        <v>4.99</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2072,22 +2072,22 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>8.19</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2116,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>3.3</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>9.1</v>
+        <v>12.7</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2291,13 +2291,13 @@
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>5.87</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>17.8</v>
+        <v>12.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>11.48</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,7 +2352,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>3.3</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>9.9</v>
+        <v>17.95</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>6.38</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>10.45</v>
+        <v>14.95</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>6.74</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2463,16 +2463,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>4.47</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>17.95</v>
+        <v>9.1</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>11.58</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>12.9</v>
+        <v>17.8</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>8.32</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,22 +2597,22 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="2">
-        <v>6.72</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>13.35</v>
+        <v>10.45</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>17.24</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>12.2</v>
+        <v>10.15</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
       </c>
       <c r="L49" s="2">
-        <v>15.74</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2746,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
@@ -2766,28 +2766,28 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>18.45</v>
+        <v>1.35</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>23.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2801,13 +2801,13 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>12.76</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,28 +2836,28 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" s="2">
-        <v>13.1</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2">
-        <v>6.6</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2912,22 +2912,22 @@
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>1.35</v>
+        <v>12.2</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L56" s="2">
-        <v>1.85</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2947,7 +2947,7 @@
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>30</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K57" s="1">
         <v>3</v>
       </c>
       <c r="L57" s="2">
-        <v>16.77</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,28 +2976,28 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K58" s="1">
         <v>3</v>
       </c>
       <c r="L58" s="2">
-        <v>9.9</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,7 +3011,7 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
@@ -3046,7 +3046,7 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
@@ -3081,7 +3081,7 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
@@ -3116,7 +3116,7 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
@@ -3151,13 +3151,13 @@
         <v>44027</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>11.9</v>
+        <v>4.99</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3166,13 +3166,13 @@
         <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K63" s="1">
         <v>3</v>
       </c>
       <c r="L63" s="2">
-        <v>19.96</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3201,13 +3201,13 @@
         <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="2">
-        <v>11.31</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3239,15 +3239,15 @@
         <v>173</v>
       </c>
       <c r="K65" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L65" s="2">
-        <v>3.04</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,22 +3262,22 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.95</v>
+        <v>4.95</v>
       </c>
       <c r="H66" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K66" s="1">
         <v>6</v>
       </c>
       <c r="L66" s="2">
-        <v>7.68</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3306,7 +3306,7 @@
         <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K67" s="1">
         <v>6</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I68" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K68" s="1">
         <v>6</v>
       </c>
       <c r="L68" s="2">
-        <v>7.12</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3367,22 +3367,22 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>4.95</v>
+        <v>1.78</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K69" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L69" s="2">
-        <v>16.74</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3411,7 +3411,7 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K70" s="1">
         <v>8</v>
@@ -3449,10 +3449,10 @@
         <v>173</v>
       </c>
       <c r="K71" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L71" s="2">
-        <v>10.37</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3484,10 +3484,10 @@
         <v>173</v>
       </c>
       <c r="K72" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L72" s="2">
-        <v>10.64</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3519,10 +3519,10 @@
         <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L73" s="2">
-        <v>20.56</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3554,10 +3554,10 @@
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L74" s="2">
-        <v>48.68</v>
+        <v>51.29</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L75" s="2">
-        <v>38.48</v>
+        <v>45.01</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L76" s="2">
-        <v>32.99</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,10 +3641,10 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G77" s="2">
         <v>1.95</v>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K77" s="1">
-        <v>31.045</v>
+        <v>35.83</v>
       </c>
       <c r="L77" s="2">
-        <v>45.35</v>
+        <v>52.34</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3694,10 +3694,10 @@
         <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L78" s="2">
-        <v>33.41</v>
+        <v>36.05</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,10 +3711,10 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G79" s="2">
         <v>2.1</v>
@@ -3729,10 +3729,10 @@
         <v>166</v>
       </c>
       <c r="K79" s="1">
-        <v>42.23</v>
+        <v>44.255</v>
       </c>
       <c r="L79" s="2">
-        <v>31.03</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L80" s="2">
-        <v>44.89</v>
+        <v>51.93</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>87.28</v>
+        <v>97.36</v>
       </c>
       <c r="L81" s="2">
-        <v>99.33</v>
+        <v>110.47</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>95.435</v>
+        <v>106.775</v>
       </c>
       <c r="L82" s="2">
-        <v>99.73</v>
+        <v>108.26</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>556.99</v>
+        <v>618.22</v>
       </c>
       <c r="L83" s="5">
-        <v>1022.07</v>
+        <v>1112.98</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,195 +61,195 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
   </si>
   <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
     <t>Nivea® Sun Spray {SPF20} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
   </si>
   <si>
     <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
     <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+    <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
     <t>Nivea® After Sun Lotion In Shower 250ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
     <t>Dove® Ντους Silk 750ml</t>
   </si>
   <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
@@ -283,199 +283,199 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
     <t>4005808593637</t>
   </si>
   <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
   </si>
   <si>
     <t>4005808804511</t>
   </si>
   <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
   </si>
   <si>
     <t>4005808859634</t>
   </si>
   <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
   </si>
   <si>
     <t>3574661469294</t>
   </si>
   <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
     <t>5201178033257</t>
   </si>
   <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
+    <t>4005808478200</t>
   </si>
   <si>
     <t>5201178022862</t>
   </si>
   <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
   </si>
   <si>
     <t>8712561626569</t>
   </si>
   <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
     <t>8001841395883</t>
   </si>
   <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
     <t>7322540055337</t>
-  </si>
-  <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
-    <t>0253</t>
   </si>
   <si>
     <t>5201020791540</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>18.99</v>
+        <v>14.3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>17.3</v>
+        <v>16.95</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>16.95</v>
+        <v>18.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>18.95</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>17.3</v>
+        <v>19.9</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>44013</v>
@@ -1337,16 +1337,16 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>15.5</v>
+        <v>2.1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I11" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>19.9</v>
+        <v>17.85</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>44013</v>
@@ -1407,16 +1407,16 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>2.1</v>
+        <v>18.45</v>
       </c>
       <c r="H13" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1442,16 +1442,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>8.9</v>
+        <v>12.4</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>17.85</v>
+        <v>14.95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>18.45</v>
+        <v>11.95</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>14.95</v>
+        <v>16.8</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>11.95</v>
+        <v>13.35</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>13.35</v>
+        <v>17.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>16.2</v>
+        <v>18.99</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>44013</v>
@@ -1751,22 +1751,22 @@
         <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I23" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>44013</v>
@@ -1786,22 +1786,22 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="2">
-        <v>15.5</v>
+        <v>1.69</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I24" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1856,33 +1856,33 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
-        <v>2.1</v>
+        <v>17.8</v>
       </c>
       <c r="H26" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1897,22 +1897,22 @@
         <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>1.69</v>
+        <v>4.99</v>
       </c>
       <c r="H27" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1932,22 +1932,22 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>13.35</v>
+        <v>4.99</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1967,22 +1967,22 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>10.7</v>
+        <v>4.99</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2072,7 +2072,7 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>3.3</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2107,22 +2107,22 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>4.99</v>
+        <v>17.95</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>3.3</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2142,22 +2142,22 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>16.65</v>
+        <v>9.9</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>10.74</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2177,22 +2177,22 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>4.95</v>
+        <v>15.5</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>2.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2212,7 +2212,7 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>17.95</v>
+        <v>9.1</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2221,13 +2221,13 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>14.48</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2247,22 +2247,22 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>6.72</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>12.7</v>
+        <v>14.95</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>8.19</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>8.32</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>9.9</v>
+        <v>17.85</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>4.47</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>11.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>14.95</v>
+        <v>9.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>165</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2">
-        <v>9.65</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="2">
-        <v>6.38</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>9.1</v>
+        <v>13.35</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>167</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="2">
-        <v>5.87</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,22 +2527,22 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>17.85</v>
+        <v>8.9</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>165</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="2">
-        <v>11.52</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>17.8</v>
+        <v>16.65</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>165</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="2">
-        <v>11.48</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,22 +2597,22 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
       </c>
       <c r="L47" s="2">
-        <v>12.76</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>10.45</v>
+        <v>12.9</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>13.48</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>10.15</v>
+        <v>10.7</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K49" s="1">
         <v>2</v>
       </c>
       <c r="L49" s="2">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,7 +2702,7 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>12.5</v>
+        <v>17.95</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
       </c>
       <c r="L50" s="2">
-        <v>16.12</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,22 +2737,22 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>4.99</v>
+        <v>10.15</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="2">
-        <v>6.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2772,22 +2772,22 @@
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>1.35</v>
+        <v>10.45</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K52" s="1">
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>1.85</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,22 +2807,22 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" s="2">
-        <v>17.24</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,13 +2836,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K54" s="1">
         <v>3</v>
       </c>
       <c r="L54" s="2">
-        <v>16.77</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,28 +2871,28 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K55" s="1">
         <v>3</v>
       </c>
       <c r="L55" s="2">
-        <v>19.96</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2912,22 +2912,22 @@
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>12.2</v>
+        <v>4.99</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K56" s="1">
         <v>3</v>
       </c>
       <c r="L56" s="2">
-        <v>23.61</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2976,7 +2976,7 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
@@ -3262,7 +3262,7 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>4.95</v>
+        <v>3.65</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3271,18 +3271,18 @@
         <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K66" s="1">
         <v>6</v>
       </c>
       <c r="L66" s="2">
-        <v>16.74</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,27 +3297,27 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I67" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K67" s="1">
         <v>6</v>
       </c>
       <c r="L67" s="2">
-        <v>14.53</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>1.95</v>
+        <v>4.95</v>
       </c>
       <c r="H68" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K68" s="1">
         <v>6</v>
       </c>
       <c r="L68" s="2">
-        <v>7.68</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3414,10 +3414,10 @@
         <v>172</v>
       </c>
       <c r="K70" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L70" s="2">
-        <v>43.88</v>
+        <v>49.47</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3484,10 +3484,10 @@
         <v>173</v>
       </c>
       <c r="K72" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L72" s="2">
-        <v>13.68</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3519,10 +3519,10 @@
         <v>177</v>
       </c>
       <c r="K73" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L73" s="2">
-        <v>22.98</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3554,10 +3554,10 @@
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L74" s="2">
-        <v>51.29</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L76" s="2">
-        <v>35.29</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,10 +3641,10 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G77" s="2">
         <v>1.95</v>
@@ -3659,10 +3659,10 @@
         <v>175</v>
       </c>
       <c r="K77" s="1">
-        <v>35.83</v>
+        <v>40.85</v>
       </c>
       <c r="L77" s="2">
-        <v>52.34</v>
+        <v>59.67</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3694,10 +3694,10 @@
         <v>181</v>
       </c>
       <c r="K78" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L78" s="2">
-        <v>36.05</v>
+        <v>36.93</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,10 +3711,10 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2">
         <v>2.1</v>
@@ -3729,10 +3729,10 @@
         <v>166</v>
       </c>
       <c r="K79" s="1">
-        <v>44.255</v>
+        <v>45.355</v>
       </c>
       <c r="L79" s="2">
-        <v>32.56</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>97.36</v>
+        <v>109.75</v>
       </c>
       <c r="L81" s="2">
-        <v>110.47</v>
+        <v>124.17</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>106.775</v>
+        <v>122.715</v>
       </c>
       <c r="L82" s="2">
-        <v>108.26</v>
+        <v>120.09</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>618.22</v>
+        <v>671.6700000000001</v>
       </c>
       <c r="L83" s="5">
-        <v>1112.98</v>
+        <v>1231.48</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="183">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -61,181 +61,190 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
     <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
   </si>
   <si>
     <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
   </si>
   <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>PizBuin® After Sun Spray 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
     <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
     <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
     <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
     <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
     <t>Fairy® Ultra Lemon 400ml</t>
@@ -244,15 +253,9 @@
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
@@ -283,187 +283,196 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
     <t>4005808407460</t>
   </si>
   <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
     <t>4005808422999</t>
   </si>
   <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
   </si>
   <si>
     <t>3574661181417</t>
   </si>
   <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>3574661407692</t>
   </si>
   <si>
     <t>4005808854028</t>
   </si>
   <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
     <t>8712561899109</t>
   </si>
   <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
     <t>8003640011506</t>
   </si>
   <si>
-    <t>5201178026785</t>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
   </si>
   <si>
     <t>8710522449325</t>
   </si>
   <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
+    <t>4005808751259</t>
   </si>
   <si>
     <t>4005808478200</t>
   </si>
   <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
   </si>
   <si>
     <t>8001841395883</t>
@@ -472,33 +481,24 @@
     <t>7613034152381</t>
   </si>
   <si>
-    <t>0253</t>
-  </si>
-  <si>
     <t>7322540055337</t>
   </si>
   <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
+    <t>8001090902238</t>
+  </si>
+  <si>
     <t>8001090902276</t>
   </si>
   <si>
-    <t>8001090902238</t>
-  </si>
-  <si>
     <t>5201485000850</t>
   </si>
   <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
@@ -514,46 +514,46 @@
     <t>Nivea</t>
   </si>
   <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
     <t>Ροδάκινο</t>
   </si>
   <si>
-    <t>PizBuin</t>
-  </si>
-  <si>
     <t>Μπανάνες</t>
   </si>
   <si>
+    <t>Zewa</t>
+  </si>
+  <si>
     <t>Dove</t>
   </si>
   <si>
-    <t>Zewa</t>
+    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Soft</t>
   </si>
   <si>
+    <t>Fairy</t>
+  </si>
+  <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Fairy</t>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Ηλιος</t>
   </si>
   <si>
     <t>Fitness</t>
   </si>
   <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
-    <t>Ηλιος</t>
-  </si>
-  <si>
     <t>Elite</t>
   </si>
   <si>
     <t>Nutella</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
   </si>
   <si>
     <t>Lays</t>
@@ -947,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>14.3</v>
+        <v>14.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>18.45</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>17.3</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>16.95</v>
+        <v>12.9</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>44013</v>
@@ -1197,16 +1197,16 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>18.95</v>
+        <v>2.1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>19.9</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>17.3</v>
+        <v>13.35</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>44013</v>
@@ -1337,16 +1337,16 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>2.1</v>
+        <v>18.95</v>
       </c>
       <c r="H11" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>17.85</v>
+        <v>16.95</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>18.45</v>
+        <v>14.3</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>12.4</v>
+        <v>18.99</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>14.95</v>
+        <v>11.95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>11.95</v>
+        <v>17.95</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>16.8</v>
+        <v>12.4</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>13.35</v>
+        <v>16.2</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>44013</v>
@@ -1617,16 +1617,16 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>12.9</v>
+        <v>1.69</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>44013</v>
@@ -1646,22 +1646,22 @@
         <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G20" s="2">
-        <v>16.2</v>
+        <v>2.1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2">
-        <v>17.95</v>
+        <v>13.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2">
-        <v>18.99</v>
+        <v>15.5</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1734,15 +1734,15 @@
         <v>165</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>44013</v>
@@ -1751,33 +1751,33 @@
         <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2">
-        <v>2.1</v>
+        <v>17.3</v>
       </c>
       <c r="H23" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>44013</v>
@@ -1792,22 +1792,22 @@
         <v>109</v>
       </c>
       <c r="G24" s="2">
-        <v>1.69</v>
+        <v>4.95</v>
       </c>
       <c r="H24" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1827,7 +1827,7 @@
         <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1862,22 +1862,22 @@
         <v>111</v>
       </c>
       <c r="G26" s="2">
-        <v>17.8</v>
+        <v>4.99</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>11.48</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1897,22 +1897,22 @@
         <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>4.99</v>
+        <v>17.3</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>3.3</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1941,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -1967,22 +1967,22 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>4.99</v>
+        <v>15.5</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>3.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2002,22 +2002,22 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>4.99</v>
+        <v>15.5</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>3.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2037,22 +2037,22 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>4.95</v>
+        <v>17.95</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>2.79</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2072,13 +2072,13 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>11.9</v>
+        <v>3.7</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>171</v>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>6.72</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2107,7 +2107,7 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>17.95</v>
+        <v>14.95</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>14.48</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>4.47</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2177,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2186,13 +2186,13 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>10</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2221,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>9.9</v>
+        <v>17.8</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>6.38</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>14.95</v>
+        <v>16.65</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2294,10 +2294,10 @@
         <v>165</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="2">
-        <v>9.65</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,22 +2317,22 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="2">
-        <v>8.19</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>17.85</v>
+        <v>11.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="2">
-        <v>11.52</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>15.5</v>
+        <v>10.7</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="2">
-        <v>10</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>9.9</v>
+        <v>17.85</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="2">
-        <v>12.76</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,22 +2457,22 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>12.5</v>
+        <v>1.35</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
       </c>
       <c r="L43" s="2">
-        <v>16.12</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>13.35</v>
+        <v>17.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
       </c>
       <c r="L44" s="2">
-        <v>17.24</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,22 +2527,22 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>8.9</v>
+        <v>13.35</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
       <c r="L45" s="2">
-        <v>7.17</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>16.65</v>
+        <v>12.7</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="2">
-        <v>21.48</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,22 +2597,22 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>1.35</v>
+        <v>10.45</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
       </c>
       <c r="L47" s="2">
-        <v>1.85</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>16.64</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2">
-        <v>13.8</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,22 +2702,22 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>17.95</v>
+        <v>9.9</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" s="2">
-        <v>23.16</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,7 +2737,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>10.15</v>
+        <v>12.2</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="2">
-        <v>13.1</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2772,22 +2772,22 @@
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>10.45</v>
+        <v>4.99</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="2">
-        <v>13.48</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2807,7 +2807,7 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K53" s="1">
         <v>3</v>
       </c>
       <c r="L53" s="2">
-        <v>16.77</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,13 +2836,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>11.9</v>
+        <v>4.99</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K54" s="1">
         <v>3</v>
       </c>
       <c r="L54" s="2">
-        <v>19.96</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,28 +2871,28 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>12.2</v>
+        <v>4.99</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K55" s="1">
         <v>3</v>
       </c>
       <c r="L55" s="2">
-        <v>23.61</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2906,28 +2906,28 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K56" s="1">
         <v>3</v>
       </c>
       <c r="L56" s="2">
-        <v>9.9</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,28 +2941,28 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K57" s="1">
         <v>3</v>
       </c>
       <c r="L57" s="2">
-        <v>9.9</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,13 +2976,13 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>18.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="2">
-        <v>35.7</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,13 +3011,13 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>18.95</v>
+        <v>9.9</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>3</v>
       </c>
       <c r="L59" s="2">
-        <v>36.66</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3046,13 +3046,13 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>9.800000000000001</v>
+        <v>15.95</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="2">
-        <v>18.96</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,28 +3081,28 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>15.95</v>
+        <v>11.9</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L61" s="2">
-        <v>30.87</v>
+        <v>26.68</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3116,28 +3116,28 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>165</v>
       </c>
       <c r="K62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2">
-        <v>19.14</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3151,13 +3151,13 @@
         <v>44027</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3166,13 +3166,13 @@
         <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K63" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L63" s="2">
-        <v>11.31</v>
+        <v>24.87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3186,28 +3186,28 @@
         <v>44027</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>4.99</v>
+        <v>18.45</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K64" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L64" s="2">
-        <v>9.9</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,27 +3227,27 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>1.35</v>
+        <v>10.15</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K65" s="1">
         <v>5</v>
       </c>
       <c r="L65" s="2">
-        <v>3.8</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,27 +3262,27 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I66" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K66" s="1">
         <v>6</v>
       </c>
       <c r="L66" s="2">
-        <v>14.53</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,22 +3297,22 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H67" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K67" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L67" s="2">
-        <v>7.68</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3332,7 +3332,7 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>4.95</v>
+        <v>1.35</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3341,13 +3341,13 @@
         <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K68" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L68" s="2">
-        <v>16.74</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3367,22 +3367,22 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>1.78</v>
+        <v>3.65</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L69" s="2">
-        <v>8.380000000000001</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3402,7 +3402,7 @@
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K70" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L70" s="2">
-        <v>49.47</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3437,7 +3437,7 @@
         <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>1.35</v>
+        <v>9.9</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K71" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L71" s="2">
-        <v>11.89</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3466,7 +3466,7 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
@@ -3484,10 +3484,10 @@
         <v>173</v>
       </c>
       <c r="K72" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L72" s="2">
-        <v>14.44</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3507,7 +3507,7 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3516,18 +3516,18 @@
         <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K73" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L73" s="2">
-        <v>24.19</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,27 +3542,27 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>3.78</v>
+        <v>1.95</v>
       </c>
       <c r="H74" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L74" s="2">
-        <v>53.9</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,27 +3577,27 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I75" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L75" s="2">
-        <v>45.01</v>
+        <v>77.39</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="4">
         <v>44013</v>
@@ -3606,28 +3606,28 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="G76" s="2">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H76" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K76" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L76" s="2">
-        <v>41.04</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3641,28 +3641,28 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="G77" s="2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H77" s="2">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K77" s="1">
-        <v>40.85</v>
+        <v>53.435</v>
       </c>
       <c r="L77" s="2">
-        <v>59.67</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,28 +3676,28 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G78" s="2">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K78" s="1">
-        <v>42</v>
+        <v>54.685</v>
       </c>
       <c r="L78" s="2">
-        <v>36.93</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,28 +3711,28 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="G79" s="2">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H79" s="2">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K79" s="1">
-        <v>45.355</v>
+        <v>56</v>
       </c>
       <c r="L79" s="2">
-        <v>33.39</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G80" s="2">
         <v>1.69</v>
@@ -3764,10 +3764,10 @@
         <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L80" s="2">
-        <v>51.93</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,28 +3781,28 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
       </c>
       <c r="H81" s="2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K81" s="1">
-        <v>109.75</v>
+        <v>67</v>
       </c>
       <c r="L81" s="2">
-        <v>124.17</v>
+        <v>58.98</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3816,40 +3816,75 @@
         <v>44027</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K82" s="1">
+        <v>146.405</v>
+      </c>
+      <c r="L82" s="2">
+        <v>164.28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <v>2.1</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H83" s="2">
         <v>0.85</v>
       </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K82" s="1">
-        <v>122.715</v>
-      </c>
-      <c r="L82" s="2">
-        <v>120.09</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="K83" s="5">
-        <v>671.6700000000001</v>
-      </c>
-      <c r="L83" s="5">
-        <v>1231.48</v>
+      <c r="K83" s="1">
+        <v>169.215</v>
+      </c>
+      <c r="L83" s="2">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="K84" s="5">
+        <v>887.74</v>
+      </c>
+      <c r="L84" s="5">
+        <v>1620.16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I82">
+  <conditionalFormatting sqref="I1:I83">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3861,7 +3896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J82">
+  <conditionalFormatting sqref="J1:J83">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -61,58 +61,76 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
   </si>
   <si>
     <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
   </si>
   <si>
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
   </si>
   <si>
     <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
   </si>
   <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray {SPF20} 200ml</t>
@@ -121,46 +139,46 @@
     <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
     <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
@@ -169,72 +187,54 @@
     <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
   </si>
   <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
     <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
     <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
     <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Original 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
@@ -283,58 +283,76 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
     <t>5201178032328</t>
   </si>
   <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
+    <t>5201178035138</t>
   </si>
   <si>
     <t>3574661492148</t>
   </si>
   <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
   </si>
   <si>
     <t>5201178026686</t>
   </si>
   <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
+    <t>3574661467177</t>
   </si>
   <si>
     <t>0201</t>
   </si>
   <si>
-    <t>3574661467177</t>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
   </si>
   <si>
     <t>4005808804511</t>
@@ -343,46 +361,46 @@
     <t>4005808433292</t>
   </si>
   <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
     <t>9011111035721</t>
   </si>
   <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
     <t>5201178033011</t>
   </si>
   <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
   </si>
   <si>
     <t>4005808262106</t>
@@ -391,84 +409,66 @@
     <t>8712561899109</t>
   </si>
   <si>
-    <t>8003640011506</t>
+    <t>3574661464985</t>
   </si>
   <si>
     <t>3574661469294</t>
   </si>
   <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
     <t>3574661467153</t>
   </si>
   <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
   </si>
   <si>
     <t>3574661192857</t>
   </si>
   <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
     <t>8710522449325</t>
   </si>
   <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
     <t>4005808751259</t>
   </si>
   <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
     <t>0253</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>8001841395883</t>
   </si>
   <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
     <t>7613034152381</t>
   </si>
   <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
     <t>8710847878404</t>
   </si>
   <si>
@@ -514,28 +514,28 @@
     <t>Nivea</t>
   </si>
   <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>PizBuin</t>
   </si>
   <si>
-    <t>Ροδάκινο</t>
-  </si>
-  <si>
     <t>Μπανάνες</t>
   </si>
   <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Zewa</t>
   </si>
   <si>
-    <t>Dove</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
+    <t>Fairy</t>
   </si>
   <si>
     <t>Soft</t>
-  </si>
-  <si>
-    <t>Fairy</t>
   </si>
   <si>
     <t>Skip</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>14.95</v>
+        <v>18.45</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>44013</v>
@@ -1127,16 +1127,16 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>17.85</v>
+        <v>2.1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>12.9</v>
+        <v>19.9</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>44013</v>
@@ -1197,13 +1197,13 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H7" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>167</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>13.35</v>
+        <v>18.95</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>15.5</v>
+        <v>16.95</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>18.95</v>
+        <v>14.3</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>16.95</v>
+        <v>18.99</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>14.3</v>
+        <v>14.95</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>18.99</v>
+        <v>17.95</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>11.95</v>
+        <v>13.35</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>17.95</v>
+        <v>12.4</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>12.4</v>
+        <v>16.2</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>16.2</v>
+        <v>11.95</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1611,22 +1611,22 @@
         <v>44027</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="H19" s="2">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>44013</v>
@@ -1646,19 +1646,19 @@
         <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
-        <v>2.1</v>
+        <v>13.35</v>
       </c>
       <c r="H20" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>167</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>44013</v>
@@ -1687,16 +1687,16 @@
         <v>106</v>
       </c>
       <c r="G21" s="2">
-        <v>13.35</v>
+        <v>1.69</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="2">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>10</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1757,7 +1757,7 @@
         <v>108</v>
       </c>
       <c r="G23" s="2">
-        <v>17.3</v>
+        <v>17.95</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>11.16</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1792,7 +1792,7 @@
         <v>109</v>
       </c>
       <c r="G24" s="2">
-        <v>4.95</v>
+        <v>4.99</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1827,22 +1827,22 @@
         <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>6.38</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>11.16</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1932,22 +1932,22 @@
         <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>4.99</v>
+        <v>15.5</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>3.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1967,7 +1967,7 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>10</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2002,22 +2002,22 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>15.5</v>
+        <v>4.99</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>10</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>17.95</v>
+        <v>17.3</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>14.48</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2072,22 +2072,22 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>3.7</v>
+        <v>9.9</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>3.01</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2107,7 +2107,7 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>14.95</v>
+        <v>15.5</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>9.65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2142,22 +2142,22 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>4.99</v>
+        <v>14.95</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>3.3</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2186,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -2212,22 +2212,22 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>9.1</v>
+        <v>4.95</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>5.87</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>11.48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>16.65</v>
+        <v>17.95</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="2">
-        <v>21.48</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>4.99</v>
+        <v>1.35</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
       </c>
       <c r="L39" s="2">
-        <v>6.6</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,22 +2352,22 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
       </c>
       <c r="L40" s="2">
-        <v>13.44</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>10.7</v>
+        <v>17.85</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
       </c>
       <c r="L41" s="2">
-        <v>13.8</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,22 +2422,22 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>17.85</v>
+        <v>11.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
       </c>
       <c r="L42" s="2">
-        <v>23.04</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,22 +2457,22 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>1.35</v>
+        <v>10.45</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
       </c>
       <c r="L43" s="2">
-        <v>1.85</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>17.95</v>
+        <v>16.65</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="2">
-        <v>23.16</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,22 +2527,22 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>13.35</v>
+        <v>4.99</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
       <c r="L45" s="2">
-        <v>17.24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2562,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K46" s="1">
         <v>2</v>
       </c>
       <c r="L46" s="2">
-        <v>16.38</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2597,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>10.45</v>
+        <v>10.7</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K47" s="1">
         <v>2</v>
       </c>
       <c r="L47" s="2">
-        <v>13.48</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>12.5</v>
+        <v>13.35</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>16.12</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,22 +2667,22 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K49" s="1">
         <v>3</v>
       </c>
       <c r="L49" s="2">
-        <v>24.96</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,22 +2702,22 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K50" s="1">
         <v>3</v>
       </c>
       <c r="L50" s="2">
-        <v>16.77</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,22 +2737,22 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>12.2</v>
+        <v>4.99</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K51" s="1">
         <v>3</v>
       </c>
       <c r="L51" s="2">
-        <v>23.61</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2781,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K52" s="1">
         <v>3</v>
@@ -2816,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K53" s="1">
         <v>3</v>
@@ -2851,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K54" s="1">
         <v>3</v>
@@ -2877,22 +2877,22 @@
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>4.99</v>
+        <v>18.95</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K55" s="1">
         <v>3</v>
       </c>
       <c r="L55" s="2">
-        <v>9.9</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2912,7 +2912,7 @@
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="2">
-        <v>19.14</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2947,7 +2947,7 @@
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>18.95</v>
+        <v>9.9</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="L57" s="2">
-        <v>36.66</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2982,7 +2982,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>9.800000000000001</v>
+        <v>15.95</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="2">
-        <v>18.96</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3052,22 +3052,22 @@
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>15.95</v>
+        <v>8.9</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>165</v>
       </c>
       <c r="K60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60" s="2">
-        <v>30.87</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,7 +3081,7 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
@@ -3096,7 +3096,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K61" s="1">
         <v>4</v>
@@ -3122,22 +3122,22 @@
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>8.9</v>
+        <v>12.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K62" s="1">
         <v>4</v>
       </c>
       <c r="L62" s="2">
-        <v>14.34</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3186,13 +3186,13 @@
         <v>44027</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>18.45</v>
+        <v>10.15</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="L64" s="2">
-        <v>59.5</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3221,13 +3221,13 @@
         <v>44027</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>10.15</v>
+        <v>18.45</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="L65" s="2">
-        <v>32.75</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3341,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K68" s="1">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>3.65</v>
+        <v>4.95</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K69" s="1">
         <v>8</v>
       </c>
       <c r="L69" s="2">
-        <v>19.05</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3402,7 +3402,7 @@
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>4.95</v>
+        <v>3.65</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K70" s="1">
         <v>8</v>
       </c>
       <c r="L70" s="2">
-        <v>22.32</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3481,7 +3481,7 @@
         <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K72" s="1">
         <v>21</v>
@@ -3516,7 +3516,7 @@
         <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K73" s="1">
         <v>22</v>
@@ -3542,7 +3542,7 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L75" s="2">
-        <v>77.39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3606,10 +3606,10 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G76" s="2">
         <v>3.7</v>
@@ -3621,7 +3621,7 @@
         <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K76" s="1">
         <v>39</v>
@@ -3641,10 +3641,10 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G77" s="2">
         <v>2.1</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K77" s="1">
         <v>53.435</v>
@@ -3694,10 +3694,10 @@
         <v>175</v>
       </c>
       <c r="K78" s="1">
-        <v>54.685</v>
+        <v>55.975</v>
       </c>
       <c r="L78" s="2">
-        <v>79.67</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3729,10 +3729,10 @@
         <v>180</v>
       </c>
       <c r="K79" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L79" s="2">
-        <v>64.04000000000001</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>181</v>
       </c>
       <c r="K80" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L80" s="2">
-        <v>51.02</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3799,10 +3799,10 @@
         <v>181</v>
       </c>
       <c r="K81" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L81" s="2">
-        <v>58.98</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3816,10 +3816,10 @@
         <v>44027</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2">
         <v>1.69</v>
@@ -3834,10 +3834,10 @@
         <v>168</v>
       </c>
       <c r="K82" s="1">
-        <v>146.405</v>
+        <v>150.765</v>
       </c>
       <c r="L82" s="2">
-        <v>164.28</v>
+        <v>169.09</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3869,18 +3869,18 @@
         <v>182</v>
       </c>
       <c r="K83" s="1">
-        <v>169.215</v>
+        <v>170.825</v>
       </c>
       <c r="L83" s="2">
-        <v>154.25</v>
+        <v>155.46</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="K84" s="5">
-        <v>887.74</v>
+        <v>901</v>
       </c>
       <c r="L84" s="5">
-        <v>1620.16</v>
+        <v>1642.78</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -151,7 +151,7 @@
     <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+    <t>Nivea Sun® Kids Spray TRIGGER spf30+ 300ml</t>
   </si>
   <si>
     <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>2.1</v>
+        <v>0.85</v>
       </c>
       <c r="H5" s="2">
         <v>0.85</v>
@@ -1617,7 +1617,7 @@
         <v>91</v>
       </c>
       <c r="G19" s="2">
-        <v>2.1</v>
+        <v>0.85</v>
       </c>
       <c r="H19" s="2">
         <v>0.85</v>
@@ -1687,7 +1687,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="2">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="2">
         <v>1.25</v>
@@ -3262,7 +3262,7 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H66" s="2">
         <v>1.65</v>
@@ -3542,7 +3542,7 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="G77" s="2">
-        <v>2.1</v>
+        <v>0.85</v>
       </c>
       <c r="H77" s="2">
         <v>0.85</v>
@@ -3682,7 +3682,7 @@
         <v>151</v>
       </c>
       <c r="G78" s="2">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H78" s="2">
         <v>1.65</v>
@@ -3822,7 +3822,7 @@
         <v>106</v>
       </c>
       <c r="G82" s="2">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="H82" s="2">
         <v>1.25</v>
@@ -3857,7 +3857,7 @@
         <v>164</v>
       </c>
       <c r="G83" s="2">
-        <v>2.1</v>
+        <v>0.85</v>
       </c>
       <c r="H83" s="2">
         <v>0.85</v>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -112,7 +112,7 @@
     <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+    <t>Μπανάνες® Κολομβιας (Ζυγιζόμενο) / Kgr</t>
   </si>
   <si>
     <t>PizBuin® After Sun Spray 200ml</t>
@@ -1022,7 +1022,7 @@
         <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>17.3</v>
+        <v>14.95</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>17.85</v>
+        <v>15.45</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>0.85</v>
+        <v>2.2</v>
       </c>
       <c r="H5" s="2">
         <v>0.85</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>18.95</v>
+        <v>13.9</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>16.95</v>
+        <v>13.9</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>14.95</v>
+        <v>16.4</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>11.95</v>
+        <v>10.9</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>91</v>
       </c>
       <c r="G19" s="2">
-        <v>0.85</v>
+        <v>2.2</v>
       </c>
       <c r="H19" s="2">
         <v>0.85</v>
@@ -1687,7 +1687,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H21" s="2">
         <v>1.25</v>
@@ -1757,7 +1757,7 @@
         <v>108</v>
       </c>
       <c r="G23" s="2">
-        <v>17.95</v>
+        <v>14.8</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>110</v>
       </c>
       <c r="G25" s="2">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>114</v>
       </c>
       <c r="G29" s="2">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>17.3</v>
+        <v>13.55</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>14.95</v>
+        <v>13.4</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>15.5</v>
+        <v>14.95</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>17.95</v>
+        <v>15.2</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>12.7</v>
+        <v>9.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>17.85</v>
+        <v>16.2</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>10.45</v>
+        <v>9.9</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>16.65</v>
+        <v>15.2</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>15.95</v>
+        <v>17.9</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>18.45</v>
+        <v>15.98</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="H66" s="2">
         <v>1.65</v>
@@ -3577,7 +3577,7 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H75" s="2">
         <v>2.95</v>
@@ -3612,7 +3612,7 @@
         <v>110</v>
       </c>
       <c r="G76" s="2">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="G77" s="2">
-        <v>0.85</v>
+        <v>2.2</v>
       </c>
       <c r="H77" s="2">
         <v>0.85</v>
@@ -3682,7 +3682,7 @@
         <v>151</v>
       </c>
       <c r="G78" s="2">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="H78" s="2">
         <v>1.65</v>
@@ -3822,7 +3822,7 @@
         <v>106</v>
       </c>
       <c r="G82" s="2">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H82" s="2">
         <v>1.25</v>
@@ -3857,7 +3857,7 @@
         <v>164</v>
       </c>
       <c r="G83" s="2">
-        <v>0.85</v>
+        <v>2.2</v>
       </c>
       <c r="H83" s="2">
         <v>0.85</v>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -3717,7 +3717,7 @@
         <v>161</v>
       </c>
       <c r="G79" s="2">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="H79" s="2">
         <v>1.3</v>
